--- a/Projects/HEINZCR/Config/Price Adherence Targets 20Jun2019.xlsx
+++ b/Projects/HEINZCR/Config/Price Adherence Targets 20Jun2019.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Price Adherence " sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Price Adherence" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -308,7 +308,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -328,10 +328,6 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1414,14 +1410,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,7 +4594,7 @@
       <c r="C227" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D227" s="6" t="n">
+      <c r="D227" s="5" t="n">
         <v>2.28</v>
       </c>
     </row>
@@ -4612,7 +4608,7 @@
       <c r="C228" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D228" s="6" t="n">
+      <c r="D228" s="5" t="n">
         <v>0.69</v>
       </c>
     </row>
@@ -4626,7 +4622,7 @@
       <c r="C229" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D229" s="6" t="n">
+      <c r="D229" s="5" t="n">
         <v>4.73</v>
       </c>
     </row>
@@ -4640,7 +4636,7 @@
       <c r="C230" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D230" s="6" t="n">
+      <c r="D230" s="5" t="n">
         <v>6.17</v>
       </c>
     </row>
@@ -4944,7 +4940,7 @@
       <c r="C252" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D252" s="6" t="n">
+      <c r="D252" s="5" t="n">
         <v>2.28</v>
       </c>
     </row>
@@ -4958,7 +4954,7 @@
       <c r="C253" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D253" s="6" t="n">
+      <c r="D253" s="5" t="n">
         <v>0.69</v>
       </c>
     </row>
@@ -4972,7 +4968,7 @@
       <c r="C254" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D254" s="6" t="n">
+      <c r="D254" s="5" t="n">
         <v>4.73</v>
       </c>
     </row>
@@ -4986,7 +4982,7 @@
       <c r="C255" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D255" s="6" t="n">
+      <c r="D255" s="5" t="n">
         <v>6.17</v>
       </c>
     </row>
@@ -4994,7 +4990,7 @@
       <c r="A256" s="4" t="n">
         <v>21000026937</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C256" s="3" t="n">
@@ -5008,7 +5004,7 @@
       <c r="A257" s="4" t="n">
         <v>21000026494</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C257" s="3" t="n">
@@ -5022,7 +5018,7 @@
       <c r="A258" s="4" t="n">
         <v>735051004294</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C258" s="3" t="n">
@@ -5036,7 +5032,7 @@
       <c r="A259" s="4" t="n">
         <v>7640164390055</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C259" s="3" t="n">
@@ -5050,7 +5046,7 @@
       <c r="A260" s="4" t="n">
         <v>735051004270</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C260" s="3" t="n">
@@ -5064,7 +5060,7 @@
       <c r="A261" s="4" t="n">
         <v>735051016730</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C261" s="3" t="n">
@@ -5078,7 +5074,7 @@
       <c r="A262" s="4" t="n">
         <v>735051016747</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C262" s="3" t="n">
@@ -5092,7 +5088,7 @@
       <c r="A263" s="4" t="n">
         <v>73505101675</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B263" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C263" s="3" t="n">
@@ -5106,7 +5102,7 @@
       <c r="A264" s="4" t="n">
         <v>735051016877</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C264" s="3" t="n">
@@ -5120,7 +5116,7 @@
       <c r="A265" s="4" t="n">
         <v>735051016907</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C265" s="3" t="n">
@@ -5134,7 +5130,7 @@
       <c r="A266" s="4" t="n">
         <v>735051016914</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C266" s="3" t="n">
@@ -5148,7 +5144,7 @@
       <c r="A267" s="4" t="n">
         <v>735051016860</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B267" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C267" s="3" t="n">
@@ -5162,7 +5158,7 @@
       <c r="A268" s="4" t="n">
         <v>735051016853</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B268" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C268" s="3" t="n">
@@ -5176,7 +5172,7 @@
       <c r="A269" s="4" t="n">
         <v>608875003128</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C269" s="3" t="n">
@@ -5190,7 +5186,7 @@
       <c r="A270" s="4" t="n">
         <v>608875003142</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C270" s="3" t="n">
@@ -5204,7 +5200,7 @@
       <c r="A271" s="4" t="n">
         <v>608875003159</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C271" s="3" t="n">
@@ -5218,7 +5214,7 @@
       <c r="A272" s="4" t="n">
         <v>735051000609</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B272" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C272" s="3" t="n">
@@ -5232,7 +5228,7 @@
       <c r="A273" s="4" t="n">
         <v>735051013401</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B273" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C273" s="3" t="n">
@@ -5246,7 +5242,7 @@
       <c r="A274" s="4" t="n">
         <v>608875003586</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B274" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C274" s="3" t="n">
@@ -5260,7 +5256,7 @@
       <c r="A275" s="4" t="n">
         <v>608875003210</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C275" s="3" t="n">
@@ -5274,7 +5270,7 @@
       <c r="A276" s="4" t="n">
         <v>29000073678</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B276" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C276" s="3" t="n">
@@ -5288,13 +5284,13 @@
       <c r="A277" s="4" t="n">
         <v>29000072206</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B277" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C277" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D277" s="6" t="n">
+      <c r="D277" s="5" t="n">
         <v>2.28</v>
       </c>
     </row>
@@ -5302,13 +5298,13 @@
       <c r="A278" s="4" t="n">
         <v>29000016507</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B278" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C278" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D278" s="6" t="n">
+      <c r="D278" s="5" t="n">
         <v>0.69</v>
       </c>
     </row>
@@ -5316,13 +5312,13 @@
       <c r="A279" s="4" t="n">
         <v>29000073241</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B279" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C279" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D279" s="6" t="n">
+      <c r="D279" s="5" t="n">
         <v>4.73</v>
       </c>
     </row>
@@ -5330,18 +5326,18 @@
       <c r="A280" s="4" t="n">
         <v>29000016651</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B280" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C280" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D280" s="6" t="n">
+      <c r="D280" s="5" t="n">
         <v>6.17</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="7" t="n">
+      <c r="A281" s="6" t="n">
         <v>608875007102</v>
       </c>
       <c r="B281" s="0" t="s">
@@ -6109,7 +6105,7 @@
       <c r="D335" s="3" t="n">
         <v>179.99</v>
       </c>
-      <c r="H335" s="8"/>
+      <c r="H335" s="7"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="n">
@@ -6124,7 +6120,7 @@
       <c r="D336" s="3" t="n">
         <v>199.99</v>
       </c>
-      <c r="H336" s="8"/>
+      <c r="H336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="2" t="n">
@@ -6139,7 +6135,7 @@
       <c r="D337" s="3" t="n">
         <v>199.99</v>
       </c>
-      <c r="H337" s="8"/>
+      <c r="H337" s="7"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="n">
@@ -6154,7 +6150,7 @@
       <c r="D338" s="3" t="n">
         <v>59.99</v>
       </c>
-      <c r="H338" s="9"/>
+      <c r="H338" s="8"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="n">
@@ -6169,7 +6165,7 @@
       <c r="D339" s="3" t="n">
         <v>109.99</v>
       </c>
-      <c r="H339" s="9"/>
+      <c r="H339" s="8"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="n">
@@ -6184,7 +6180,7 @@
       <c r="D340" s="3" t="n">
         <v>54.99</v>
       </c>
-      <c r="H340" s="8"/>
+      <c r="H340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="n">
@@ -6199,7 +6195,7 @@
       <c r="D341" s="3" t="n">
         <v>34.99</v>
       </c>
-      <c r="H341" s="8"/>
+      <c r="H341" s="7"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="n">
@@ -6214,7 +6210,7 @@
       <c r="D342" s="3" t="n">
         <v>54.99</v>
       </c>
-      <c r="H342" s="8"/>
+      <c r="H342" s="7"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="n">
@@ -6229,7 +6225,7 @@
       <c r="D343" s="3" t="n">
         <v>168</v>
       </c>
-      <c r="H343" s="8"/>
+      <c r="H343" s="7"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="n">
@@ -6244,7 +6240,7 @@
       <c r="D344" s="3" t="n">
         <v>139</v>
       </c>
-      <c r="H344" s="8"/>
+      <c r="H344" s="7"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="n">
@@ -6259,7 +6255,7 @@
       <c r="D345" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="H345" s="8"/>
+      <c r="H345" s="7"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="n">
@@ -6274,7 +6270,7 @@
       <c r="D346" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="H346" s="8"/>
+      <c r="H346" s="7"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="2" t="e">
@@ -6290,7 +6286,7 @@
       <c r="D347" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="H347" s="8"/>
+      <c r="H347" s="7"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="n">
@@ -6305,7 +6301,7 @@
       <c r="D348" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="H348" s="9"/>
+      <c r="H348" s="8"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="n">
@@ -6320,7 +6316,7 @@
       <c r="D349" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="H349" s="8"/>
+      <c r="H349" s="7"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="n">
@@ -6335,7 +6331,7 @@
       <c r="D350" s="3" t="n">
         <v>58.04</v>
       </c>
-      <c r="H350" s="8"/>
+      <c r="H350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="n">
@@ -6350,7 +6346,7 @@
       <c r="D351" s="3" t="n">
         <v>30.44</v>
       </c>
-      <c r="H351" s="8"/>
+      <c r="H351" s="7"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="2" t="n">
@@ -6365,7 +6361,7 @@
       <c r="D352" s="3" t="n">
         <v>20.38</v>
       </c>
-      <c r="H352" s="8"/>
+      <c r="H352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="n">
@@ -6380,7 +6376,7 @@
       <c r="D353" s="3" t="n">
         <v>106.17</v>
       </c>
-      <c r="H353" s="9"/>
+      <c r="H353" s="8"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2" t="n">
@@ -6395,7 +6391,7 @@
       <c r="D354" s="3" t="n">
         <v>56.51</v>
       </c>
-      <c r="H354" s="9"/>
+      <c r="H354" s="8"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="n">
@@ -6410,7 +6406,7 @@
       <c r="D355" s="3" t="n">
         <v>49.42</v>
       </c>
-      <c r="H355" s="8"/>
+      <c r="H355" s="7"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="n">
@@ -6425,7 +6421,7 @@
       <c r="D356" s="3" t="n">
         <v>75.89</v>
       </c>
-      <c r="H356" s="8"/>
+      <c r="H356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="n">
@@ -6440,7 +6436,7 @@
       <c r="D357" s="3" t="n">
         <v>32.99</v>
       </c>
-      <c r="H357" s="8"/>
+      <c r="H357" s="7"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="n">
@@ -6455,7 +6451,7 @@
       <c r="D358" s="3" t="n">
         <v>20.89</v>
       </c>
-      <c r="H358" s="8"/>
+      <c r="H358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="n">
@@ -6470,7 +6466,7 @@
       <c r="D359" s="3" t="n">
         <v>62.69</v>
       </c>
-      <c r="H359" s="9"/>
+      <c r="H359" s="8"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="e">
@@ -6486,7 +6482,7 @@
       <c r="D360" s="3" t="n">
         <v>50.59</v>
       </c>
-      <c r="H360" s="8"/>
+      <c r="H360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="n">
@@ -6501,7 +6497,7 @@
       <c r="D361" s="3" t="n">
         <v>32.99</v>
       </c>
-      <c r="H361" s="9"/>
+      <c r="H361" s="8"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="n">
@@ -6516,7 +6512,7 @@
       <c r="D362" s="3" t="n">
         <v>30.79</v>
       </c>
-      <c r="H362" s="8"/>
+      <c r="H362" s="7"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="n">
@@ -6531,7 +6527,7 @@
       <c r="D363" s="3" t="n">
         <v>109.99</v>
       </c>
-      <c r="H363" s="8"/>
+      <c r="H363" s="7"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="n">
@@ -6546,7 +6542,7 @@
       <c r="D364" s="3" t="n">
         <v>198.7</v>
       </c>
-      <c r="H364" s="8"/>
+      <c r="H364" s="7"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="n">
@@ -6561,7 +6557,7 @@
       <c r="D365" s="3" t="n">
         <v>71.6</v>
       </c>
-      <c r="H365" s="8"/>
+      <c r="H365" s="7"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2" t="n">
@@ -6576,7 +6572,7 @@
       <c r="D366" s="3" t="n">
         <v>46.8</v>
       </c>
-      <c r="H366" s="8"/>
+      <c r="H366" s="7"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="n">
@@ -6591,7 +6587,7 @@
       <c r="D367" s="3" t="n">
         <v>79.9</v>
       </c>
-      <c r="H367" s="9"/>
+      <c r="H367" s="8"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="n">
@@ -6606,7 +6602,7 @@
       <c r="D368" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="H368" s="9"/>
+      <c r="H368" s="8"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="n">
@@ -6621,7 +6617,7 @@
       <c r="D369" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="H369" s="8"/>
+      <c r="H369" s="7"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="n">
@@ -6636,7 +6632,7 @@
       <c r="D370" s="3" t="n">
         <v>198.7</v>
       </c>
-      <c r="H370" s="8"/>
+      <c r="H370" s="7"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="e">
@@ -6652,7 +6648,7 @@
       <c r="D371" s="3" t="n">
         <v>238.51</v>
       </c>
-      <c r="H371" s="8"/>
+      <c r="H371" s="7"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="n">
@@ -6667,7 +6663,7 @@
       <c r="D372" s="3" t="n">
         <v>155.9</v>
       </c>
-      <c r="H372" s="8"/>
+      <c r="H372" s="7"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="n">
@@ -6682,7 +6678,7 @@
       <c r="D373" s="3" t="n">
         <v>155.9</v>
       </c>
-      <c r="H373" s="8"/>
+      <c r="H373" s="7"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="n">
@@ -6697,7 +6693,7 @@
       <c r="D374" s="3" t="n">
         <v>128.27</v>
       </c>
-      <c r="H374" s="8"/>
+      <c r="H374" s="7"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="n">
@@ -6712,7 +6708,7 @@
       <c r="D375" s="3" t="n">
         <v>55.61</v>
       </c>
-      <c r="H375" s="8"/>
+      <c r="H375" s="7"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="n">
@@ -6727,7 +6723,7 @@
       <c r="D376" s="3" t="n">
         <v>36.88</v>
       </c>
-      <c r="H376" s="8"/>
+      <c r="H376" s="7"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="n">
@@ -6742,7 +6738,7 @@
       <c r="D377" s="3" t="n">
         <v>116.85</v>
       </c>
-      <c r="H377" s="9"/>
+      <c r="H377" s="8"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="e">
@@ -6758,7 +6754,7 @@
       <c r="D378" s="3" t="n">
         <v>93.44</v>
       </c>
-      <c r="H378" s="8"/>
+      <c r="H378" s="7"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="n">
@@ -6773,7 +6769,7 @@
       <c r="D379" s="3" t="n">
         <v>55.97</v>
       </c>
-      <c r="H379" s="9"/>
+      <c r="H379" s="8"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="n">
@@ -6788,7 +6784,7 @@
       <c r="D380" s="3" t="n">
         <v>54.4</v>
       </c>
-      <c r="H380" s="8"/>
+      <c r="H380" s="7"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="n">
@@ -6803,7 +6799,7 @@
       <c r="D381" s="3" t="n">
         <v>207.98</v>
       </c>
-      <c r="H381" s="8"/>
+      <c r="H381" s="7"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="e">
@@ -6819,7 +6815,7 @@
       <c r="D382" s="3" t="n">
         <v>211.66</v>
       </c>
-      <c r="H382" s="8"/>
+      <c r="H382" s="7"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="n">
@@ -6834,7 +6830,7 @@
       <c r="D383" s="3" t="n">
         <v>138.33</v>
       </c>
-      <c r="H383" s="8"/>
+      <c r="H383" s="7"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="n">
@@ -6849,7 +6845,7 @@
       <c r="D384" s="3" t="n">
         <v>138.33</v>
       </c>
-      <c r="H384" s="8"/>
+      <c r="H384" s="7"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="n">
@@ -6864,7 +6860,7 @@
       <c r="D385" s="3" t="n">
         <v>113.74</v>
       </c>
-      <c r="H385" s="8"/>
+      <c r="H385" s="7"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="n">
@@ -6879,7 +6875,7 @@
       <c r="D386" s="3" t="n">
         <v>49.31</v>
       </c>
-      <c r="H386" s="8"/>
+      <c r="H386" s="7"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="n">
@@ -6894,7 +6890,7 @@
       <c r="D387" s="3" t="n">
         <v>32.71</v>
       </c>
-      <c r="H387" s="8"/>
+      <c r="H387" s="7"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="n">
@@ -6909,7 +6905,7 @@
       <c r="D388" s="3" t="n">
         <v>103.7</v>
       </c>
-      <c r="H388" s="9"/>
+      <c r="H388" s="8"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2" t="n">
@@ -6924,7 +6920,7 @@
       <c r="D389" s="3" t="n">
         <v>55.2</v>
       </c>
-      <c r="H389" s="9"/>
+      <c r="H389" s="8"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="n">
@@ -6939,7 +6935,7 @@
       <c r="D390" s="3" t="n">
         <v>48.29</v>
       </c>
-      <c r="H390" s="8"/>
+      <c r="H390" s="7"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="n">
@@ -6954,7 +6950,7 @@
       <c r="D391" s="3" t="n">
         <v>184.55</v>
       </c>
-      <c r="H391" s="8"/>
+      <c r="H391" s="7"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="n">
@@ -6969,7 +6965,7 @@
       <c r="D392" s="3" t="n">
         <v>99.81</v>
       </c>
-      <c r="H392" s="8"/>
+      <c r="H392" s="7"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2" t="n">
@@ -6984,7 +6980,7 @@
       <c r="D393" s="3" t="n">
         <v>105.99</v>
       </c>
-      <c r="H393" s="8"/>
+      <c r="H393" s="7"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="n">
@@ -6999,7 +6995,7 @@
       <c r="D394" s="3" t="n">
         <v>69.99</v>
       </c>
-      <c r="H394" s="8"/>
+      <c r="H394" s="7"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="n">
@@ -7014,7 +7010,7 @@
       <c r="D395" s="3" t="n">
         <v>29.99</v>
       </c>
-      <c r="H395" s="8"/>
+      <c r="H395" s="7"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="n">
@@ -7029,7 +7025,7 @@
       <c r="D396" s="3" t="n">
         <v>20.99</v>
       </c>
-      <c r="H396" s="8"/>
+      <c r="H396" s="7"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="n">
@@ -7044,7 +7040,7 @@
       <c r="D397" s="3" t="n">
         <v>79.9</v>
       </c>
-      <c r="H397" s="9"/>
+      <c r="H397" s="8"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="n">
@@ -7059,7 +7055,7 @@
       <c r="D398" s="3" t="n">
         <v>48.69</v>
       </c>
-      <c r="H398" s="9"/>
+      <c r="H398" s="8"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="n">
@@ -7074,7 +7070,7 @@
       <c r="D399" s="3" t="n">
         <v>30.99</v>
       </c>
-      <c r="H399" s="8"/>
+      <c r="H399" s="7"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="n">
@@ -7089,7 +7085,7 @@
       <c r="D400" s="3" t="n">
         <v>141.5</v>
       </c>
-      <c r="H400" s="8"/>
+      <c r="H400" s="7"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="n">
@@ -7104,7 +7100,7 @@
       <c r="D401" s="3" t="n">
         <v>139.69</v>
       </c>
-      <c r="H401" s="8"/>
+      <c r="H401" s="7"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="n">
@@ -7119,7 +7115,7 @@
       <c r="D402" s="3" t="n">
         <v>171.5</v>
       </c>
-      <c r="H402" s="8"/>
+      <c r="H402" s="7"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="n">
@@ -7134,7 +7130,7 @@
       <c r="D403" s="3" t="n">
         <v>171.5</v>
       </c>
-      <c r="H403" s="8"/>
+      <c r="H403" s="7"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="n">
@@ -7149,7 +7145,7 @@
       <c r="D404" s="3" t="n">
         <v>171.5</v>
       </c>
-      <c r="H404" s="8"/>
+      <c r="H404" s="7"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="n">
@@ -7164,7 +7160,7 @@
       <c r="D405" s="3" t="n">
         <v>114.85</v>
       </c>
-      <c r="H405" s="8"/>
+      <c r="H405" s="7"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="n">
@@ -7179,7 +7175,7 @@
       <c r="D406" s="3" t="n">
         <v>49.79</v>
       </c>
-      <c r="H406" s="8"/>
+      <c r="H406" s="7"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2" t="n">
@@ -7194,7 +7190,7 @@
       <c r="D407" s="3" t="n">
         <v>32.99</v>
       </c>
-      <c r="H407" s="8"/>
+      <c r="H407" s="7"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="2" t="e">
@@ -7210,7 +7206,7 @@
       <c r="D408" s="3" t="n">
         <v>18.69</v>
       </c>
-      <c r="H408" s="8"/>
+      <c r="H408" s="7"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="n">
@@ -7225,7 +7221,7 @@
       <c r="D409" s="3" t="n">
         <v>104.75</v>
       </c>
-      <c r="H409" s="9"/>
+      <c r="H409" s="8"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="e">
@@ -7241,7 +7237,7 @@
       <c r="D410" s="3" t="n">
         <v>83.75</v>
       </c>
-      <c r="H410" s="8"/>
+      <c r="H410" s="7"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="n">
@@ -7256,7 +7252,7 @@
       <c r="D411" s="3" t="n">
         <v>55.75</v>
       </c>
-      <c r="H411" s="9"/>
+      <c r="H411" s="8"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="n">
@@ -7271,7 +7267,7 @@
       <c r="D412" s="3" t="n">
         <v>48.75</v>
       </c>
-      <c r="H412" s="8"/>
+      <c r="H412" s="7"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="n">
@@ -7286,7 +7282,7 @@
       <c r="D413" s="3" t="n">
         <v>165</v>
       </c>
-      <c r="H413" s="8"/>
+      <c r="H413" s="7"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="n">
@@ -7301,7 +7297,7 @@
       <c r="D414" s="3" t="n">
         <v>165</v>
       </c>
-      <c r="H414" s="8"/>
+      <c r="H414" s="7"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="e">
@@ -7317,7 +7313,7 @@
       <c r="D415" s="3" t="n">
         <v>92.95</v>
       </c>
-      <c r="H415" s="8"/>
+      <c r="H415" s="7"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="n">
@@ -7332,7 +7328,7 @@
       <c r="D416" s="3" t="n">
         <v>92.95</v>
       </c>
-      <c r="H416" s="8"/>
+      <c r="H416" s="7"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="n">
@@ -7347,7 +7343,7 @@
       <c r="D417" s="3" t="n">
         <v>79.75</v>
       </c>
-      <c r="H417" s="8"/>
+      <c r="H417" s="7"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="n">
@@ -7362,7 +7358,7 @@
       <c r="D418" s="3" t="n">
         <v>49.9</v>
       </c>
-      <c r="H418" s="8"/>
+      <c r="H418" s="7"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="e">
@@ -7378,7 +7374,7 @@
       <c r="D419" s="3" t="n">
         <v>29.9</v>
       </c>
-      <c r="H419" s="8"/>
+      <c r="H419" s="7"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="n">
@@ -7393,7 +7389,7 @@
       <c r="D420" s="3" t="n">
         <v>139</v>
       </c>
-      <c r="H420" s="9"/>
+      <c r="H420" s="8"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="n">
@@ -7408,7 +7404,7 @@
       <c r="D421" s="3" t="n">
         <v>151.99</v>
       </c>
-      <c r="H421" s="8"/>
+      <c r="H421" s="7"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="n">
@@ -7423,7 +7419,7 @@
       <c r="D422" s="3" t="n">
         <v>151.99</v>
       </c>
-      <c r="H422" s="8"/>
+      <c r="H422" s="7"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="n">
@@ -7438,7 +7434,7 @@
       <c r="D423" s="3" t="n">
         <v>89.99</v>
       </c>
-      <c r="H423" s="8"/>
+      <c r="H423" s="7"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="n">
@@ -7453,7 +7449,7 @@
       <c r="D424" s="3" t="n">
         <v>41.99</v>
       </c>
-      <c r="H424" s="8"/>
+      <c r="H424" s="7"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="n">
@@ -7468,7 +7464,7 @@
       <c r="D425" s="3" t="n">
         <v>94.99</v>
       </c>
-      <c r="H425" s="9"/>
+      <c r="H425" s="8"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="n">
@@ -7483,7 +7479,7 @@
       <c r="D426" s="3" t="n">
         <v>54.99</v>
       </c>
-      <c r="H426" s="9"/>
+      <c r="H426" s="8"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="n">
@@ -7498,7 +7494,7 @@
       <c r="D427" s="3" t="n">
         <v>46.99</v>
       </c>
-      <c r="H427" s="8"/>
+      <c r="H427" s="7"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="n">
@@ -7513,7 +7509,7 @@
       <c r="D428" s="3" t="n">
         <v>134</v>
       </c>
-      <c r="H428" s="8"/>
+      <c r="H428" s="7"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="n">
@@ -7528,7 +7524,7 @@
       <c r="D429" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="H429" s="8"/>
+      <c r="H429" s="7"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="n">
@@ -7543,7 +7539,7 @@
       <c r="D430" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="H430" s="8"/>
+      <c r="H430" s="7"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="e">
@@ -7559,7 +7555,7 @@
       <c r="D431" s="3" t="n">
         <v>21.6</v>
       </c>
-      <c r="H431" s="8"/>
+      <c r="H431" s="7"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="n">
@@ -7574,7 +7570,7 @@
       <c r="D432" s="3" t="n">
         <v>56.9</v>
       </c>
-      <c r="H432" s="8"/>
+      <c r="H432" s="7"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="n">
@@ -7589,7 +7585,7 @@
       <c r="D433" s="3" t="n">
         <v>129.9</v>
       </c>
-      <c r="H433" s="8"/>
+      <c r="H433" s="7"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="n">
@@ -7604,7 +7600,7 @@
       <c r="D434" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="H434" s="9"/>
+      <c r="H434" s="8"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="n">
@@ -7619,7 +7615,7 @@
       <c r="D435" s="3" t="n">
         <v>163</v>
       </c>
-      <c r="H435" s="8"/>
+      <c r="H435" s="7"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="n">
@@ -7634,7 +7630,7 @@
       <c r="D436" s="3" t="n">
         <v>129.9</v>
       </c>
-      <c r="H436" s="8"/>
+      <c r="H436" s="7"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="n">
@@ -7649,7 +7645,7 @@
       <c r="D437" s="3" t="n">
         <v>124.9</v>
       </c>
-      <c r="H437" s="8"/>
+      <c r="H437" s="7"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="n">
@@ -7664,7 +7660,7 @@
       <c r="D438" s="3" t="n">
         <v>149.9</v>
       </c>
-      <c r="H438" s="8"/>
+      <c r="H438" s="7"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="n">
@@ -7679,7 +7675,7 @@
       <c r="D439" s="3" t="n">
         <v>149.9</v>
       </c>
-      <c r="H439" s="8"/>
+      <c r="H439" s="7"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="n">
@@ -7694,7 +7690,7 @@
       <c r="D440" s="3" t="n">
         <v>149.9</v>
       </c>
-      <c r="H440" s="8"/>
+      <c r="H440" s="7"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="n">
@@ -7709,7 +7705,7 @@
       <c r="D441" s="3" t="n">
         <v>108.5</v>
       </c>
-      <c r="H441" s="8"/>
+      <c r="H441" s="7"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="n">
@@ -7724,7 +7720,7 @@
       <c r="D442" s="3" t="n">
         <v>45.59</v>
       </c>
-      <c r="H442" s="8"/>
+      <c r="H442" s="7"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="n">
@@ -7739,7 +7735,7 @@
       <c r="D443" s="3" t="n">
         <v>21.99</v>
       </c>
-      <c r="H443" s="8"/>
+      <c r="H443" s="7"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="n">
@@ -7754,7 +7750,7 @@
       <c r="D444" s="3" t="n">
         <v>94.9</v>
       </c>
-      <c r="H444" s="9"/>
+      <c r="H444" s="8"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="e">
@@ -7770,7 +7766,7 @@
       <c r="D445" s="3" t="n">
         <v>129.9</v>
       </c>
-      <c r="H445" s="8"/>
+      <c r="H445" s="7"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="n">
@@ -7785,7 +7781,7 @@
       <c r="D446" s="3" t="n">
         <v>49.99</v>
       </c>
-      <c r="H446" s="9"/>
+      <c r="H446" s="8"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="n">
@@ -7800,7 +7796,7 @@
       <c r="D447" s="3" t="n">
         <v>44.99</v>
       </c>
-      <c r="H447" s="8"/>
+      <c r="H447" s="7"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="n">
@@ -7815,7 +7811,7 @@
       <c r="D448" s="3" t="n">
         <v>97.99</v>
       </c>
-      <c r="H448" s="8"/>
+      <c r="H448" s="7"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="n">
@@ -7830,7 +7826,7 @@
       <c r="D449" s="3" t="n">
         <v>39.99</v>
       </c>
-      <c r="H449" s="8"/>
+      <c r="H449" s="7"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="n">
@@ -7845,7 +7841,7 @@
       <c r="D450" s="3" t="n">
         <v>56.9</v>
       </c>
-      <c r="H450" s="9"/>
+      <c r="H450" s="8"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="n">
@@ -7860,7 +7856,7 @@
       <c r="D451" s="3" t="n">
         <v>46.9</v>
       </c>
-      <c r="H451" s="8"/>
+      <c r="H451" s="7"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="n">
@@ -7875,7 +7871,7 @@
       <c r="D452" s="3" t="n">
         <v>170.99</v>
       </c>
-      <c r="H452" s="8"/>
+      <c r="H452" s="7"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="n">
@@ -7890,7 +7886,7 @@
       <c r="D453" s="3" t="n">
         <v>189</v>
       </c>
-      <c r="H453" s="8"/>
+      <c r="H453" s="7"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="n">
@@ -7905,7 +7901,7 @@
       <c r="D454" s="3" t="n">
         <v>189</v>
       </c>
-      <c r="H454" s="8"/>
+      <c r="H454" s="7"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="n">
@@ -7920,7 +7916,7 @@
       <c r="D455" s="3" t="n">
         <v>189</v>
       </c>
-      <c r="H455" s="8"/>
+      <c r="H455" s="7"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="n">
@@ -7935,7 +7931,7 @@
       <c r="D456" s="3" t="n">
         <v>189</v>
       </c>
-      <c r="H456" s="8"/>
+      <c r="H456" s="7"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="n">
@@ -7950,7 +7946,7 @@
       <c r="D457" s="3" t="n">
         <v>109</v>
       </c>
-      <c r="H457" s="8"/>
+      <c r="H457" s="7"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="n">
@@ -7965,7 +7961,7 @@
       <c r="D458" s="3" t="n">
         <v>46.5</v>
       </c>
-      <c r="H458" s="8"/>
+      <c r="H458" s="7"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="n">
@@ -7980,7 +7976,7 @@
       <c r="D459" s="3" t="n">
         <v>31.5</v>
       </c>
-      <c r="H459" s="8"/>
+      <c r="H459" s="7"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="n">
@@ -7995,7 +7991,7 @@
       <c r="D460" s="3" t="n">
         <v>119</v>
       </c>
-      <c r="H460" s="9"/>
+      <c r="H460" s="8"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="e">
@@ -8011,7 +8007,7 @@
       <c r="D461" s="3" t="n">
         <v>95.5</v>
       </c>
-      <c r="H461" s="8"/>
+      <c r="H461" s="7"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="n">
@@ -8026,7 +8022,7 @@
       <c r="D462" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="H462" s="9"/>
+      <c r="H462" s="8"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="n">
@@ -8041,7 +8037,7 @@
       <c r="D463" s="3" t="n">
         <v>56.5</v>
       </c>
-      <c r="H463" s="8"/>
+      <c r="H463" s="7"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="e">
@@ -8057,7 +8053,7 @@
       <c r="D464" s="3" t="n">
         <v>281.99</v>
       </c>
-      <c r="H464" s="8"/>
+      <c r="H464" s="7"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="n">
@@ -8072,7 +8068,7 @@
       <c r="D465" s="3" t="n">
         <v>57.49</v>
       </c>
-      <c r="H465" s="8"/>
+      <c r="H465" s="7"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="n">
@@ -8087,7 +8083,7 @@
       <c r="D466" s="3" t="n">
         <v>34.49</v>
       </c>
-      <c r="H466" s="8"/>
+      <c r="H466" s="7"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="e">
@@ -8103,7 +8099,7 @@
       <c r="D467" s="3" t="n">
         <v>22.99</v>
       </c>
-      <c r="H467" s="8"/>
+      <c r="H467" s="7"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="n">
@@ -8118,7 +8114,7 @@
       <c r="D468" s="3" t="n">
         <v>141.99</v>
       </c>
-      <c r="H468" s="9"/>
+      <c r="H468" s="8"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="e">
@@ -8134,7 +8130,7 @@
       <c r="D469" s="3" t="n">
         <v>11.99</v>
       </c>
-      <c r="H469" s="8"/>
+      <c r="H469" s="7"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2" t="n">
@@ -8149,10 +8145,10 @@
       <c r="D470" s="3" t="n">
         <v>66.99</v>
       </c>
-      <c r="H470" s="8"/>
+      <c r="H470" s="7"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="7" t="n">
+      <c r="A471" s="6" t="n">
         <v>21000061778</v>
       </c>
       <c r="B471" s="0" t="s">
@@ -8164,7 +8160,7 @@
       <c r="D471" s="0" t="n">
         <v>2390</v>
       </c>
-      <c r="K471" s="7"/>
+      <c r="K471" s="6"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="n">
@@ -8179,7 +8175,7 @@
       <c r="D472" s="0" t="n">
         <v>1890</v>
       </c>
-      <c r="K472" s="8"/>
+      <c r="K472" s="7"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="n">
@@ -8194,7 +8190,7 @@
       <c r="D473" s="0" t="n">
         <v>3190</v>
       </c>
-      <c r="K473" s="8"/>
+      <c r="K473" s="7"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="n">
@@ -8209,7 +8205,7 @@
       <c r="D474" s="0" t="n">
         <v>2490</v>
       </c>
-      <c r="K474" s="8"/>
+      <c r="K474" s="7"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="n">
@@ -8224,7 +8220,7 @@
       <c r="D475" s="0" t="n">
         <v>1950</v>
       </c>
-      <c r="K475" s="8"/>
+      <c r="K475" s="7"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="n">
@@ -8239,7 +8235,7 @@
       <c r="D476" s="0" t="n">
         <v>1590</v>
       </c>
-      <c r="K476" s="8"/>
+      <c r="K476" s="7"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="n">
@@ -8254,7 +8250,7 @@
       <c r="D477" s="0" t="n">
         <v>2750</v>
       </c>
-      <c r="K477" s="8"/>
+      <c r="K477" s="7"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="n">
@@ -8269,7 +8265,7 @@
       <c r="D478" s="0" t="n">
         <v>2390</v>
       </c>
-      <c r="K478" s="7"/>
+      <c r="K478" s="6"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="n">
@@ -8284,7 +8280,7 @@
       <c r="D479" s="0" t="n">
         <v>1890</v>
       </c>
-      <c r="K479" s="8"/>
+      <c r="K479" s="7"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="n">
@@ -8299,7 +8295,7 @@
       <c r="D480" s="0" t="n">
         <v>3190</v>
       </c>
-      <c r="K480" s="8"/>
+      <c r="K480" s="7"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="n">
@@ -8314,7 +8310,7 @@
       <c r="D481" s="0" t="n">
         <v>2490</v>
       </c>
-      <c r="K481" s="8"/>
+      <c r="K481" s="7"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="n">
@@ -8329,7 +8325,7 @@
       <c r="D482" s="0" t="n">
         <v>1950</v>
       </c>
-      <c r="K482" s="8"/>
+      <c r="K482" s="7"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="n">
@@ -8344,7 +8340,7 @@
       <c r="D483" s="0" t="n">
         <v>1590</v>
       </c>
-      <c r="K483" s="8"/>
+      <c r="K483" s="7"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="n">
@@ -8359,7 +8355,7 @@
       <c r="D484" s="0" t="n">
         <v>2750</v>
       </c>
-      <c r="K484" s="8"/>
+      <c r="K484" s="7"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="n">
@@ -8374,7 +8370,7 @@
       <c r="D485" s="0" t="n">
         <v>2590</v>
       </c>
-      <c r="K485" s="7"/>
+      <c r="K485" s="6"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="n">
@@ -8389,7 +8385,7 @@
       <c r="D486" s="0" t="n">
         <v>2190</v>
       </c>
-      <c r="K486" s="8"/>
+      <c r="K486" s="7"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="n">
@@ -8404,7 +8400,7 @@
       <c r="D487" s="0" t="n">
         <v>3290</v>
       </c>
-      <c r="K487" s="8"/>
+      <c r="K487" s="7"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="n">
@@ -8419,7 +8415,7 @@
       <c r="D488" s="0" t="n">
         <v>2590</v>
       </c>
-      <c r="K488" s="8"/>
+      <c r="K488" s="7"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="n">
@@ -8434,7 +8430,7 @@
       <c r="D489" s="0" t="n">
         <v>2049</v>
       </c>
-      <c r="K489" s="8"/>
+      <c r="K489" s="7"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="n">
@@ -8449,7 +8445,7 @@
       <c r="D490" s="0" t="n">
         <v>1669</v>
       </c>
-      <c r="K490" s="8"/>
+      <c r="K490" s="7"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="n">
@@ -8464,7 +8460,7 @@
       <c r="D491" s="0" t="n">
         <v>2889</v>
       </c>
-      <c r="K491" s="8"/>
+      <c r="K491" s="7"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="n">
@@ -8479,7 +8475,7 @@
       <c r="D492" s="0" t="n">
         <v>1169</v>
       </c>
-      <c r="K492" s="8"/>
+      <c r="K492" s="7"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="n">
@@ -8494,7 +8490,7 @@
       <c r="D493" s="0" t="n">
         <v>2359</v>
       </c>
-      <c r="K493" s="8"/>
+      <c r="K493" s="7"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="n">
@@ -8509,7 +8505,7 @@
       <c r="D494" s="0" t="n">
         <v>2590</v>
       </c>
-      <c r="K494" s="7"/>
+      <c r="K494" s="6"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="n">
@@ -8524,7 +8520,7 @@
       <c r="D495" s="0" t="n">
         <v>2190</v>
       </c>
-      <c r="K495" s="8"/>
+      <c r="K495" s="7"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="n">
@@ -8539,7 +8535,7 @@
       <c r="D496" s="0" t="n">
         <v>3290</v>
       </c>
-      <c r="K496" s="8"/>
+      <c r="K496" s="7"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="n">
@@ -8554,7 +8550,7 @@
       <c r="D497" s="0" t="n">
         <v>2590</v>
       </c>
-      <c r="K497" s="8"/>
+      <c r="K497" s="7"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="n">
@@ -8569,7 +8565,7 @@
       <c r="D498" s="0" t="n">
         <v>2049</v>
       </c>
-      <c r="K498" s="8"/>
+      <c r="K498" s="7"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="n">
@@ -8584,7 +8580,7 @@
       <c r="D499" s="0" t="n">
         <v>1669</v>
       </c>
-      <c r="K499" s="8"/>
+      <c r="K499" s="7"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="n">
@@ -8599,7 +8595,7 @@
       <c r="D500" s="0" t="n">
         <v>2889</v>
       </c>
-      <c r="K500" s="8"/>
+      <c r="K500" s="7"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="n">
@@ -8614,7 +8610,7 @@
       <c r="D501" s="0" t="n">
         <v>1169</v>
       </c>
-      <c r="K501" s="8"/>
+      <c r="K501" s="7"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="n">
@@ -8629,7 +8625,7 @@
       <c r="D502" s="0" t="n">
         <v>2359</v>
       </c>
-      <c r="K502" s="8"/>
+      <c r="K502" s="7"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="n">
@@ -8644,7 +8640,7 @@
       <c r="D503" s="0" t="n">
         <v>2590</v>
       </c>
-      <c r="K503" s="7"/>
+      <c r="K503" s="6"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="n">
@@ -8659,7 +8655,7 @@
       <c r="D504" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="K504" s="8"/>
+      <c r="K504" s="7"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="n">
@@ -8674,7 +8670,7 @@
       <c r="D505" s="0" t="n">
         <v>3390</v>
       </c>
-      <c r="K505" s="8"/>
+      <c r="K505" s="7"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="n">
@@ -8689,7 +8685,7 @@
       <c r="D506" s="0" t="n">
         <v>1590</v>
       </c>
-      <c r="K506" s="8"/>
+      <c r="K506" s="7"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="n">
@@ -8704,7 +8700,7 @@
       <c r="D507" s="0" t="n">
         <v>890</v>
       </c>
-      <c r="K507" s="8"/>
+      <c r="K507" s="7"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="n">
@@ -8719,7 +8715,7 @@
       <c r="D508" s="0" t="n">
         <v>1169</v>
       </c>
-      <c r="K508" s="8"/>
+      <c r="K508" s="7"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2" t="n">
@@ -8734,7 +8730,7 @@
       <c r="D509" s="0" t="n">
         <v>2190</v>
       </c>
-      <c r="K509" s="8"/>
+      <c r="K509" s="7"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="n">
@@ -8749,10 +8745,10 @@
       <c r="D510" s="0" t="n">
         <v>3190</v>
       </c>
-      <c r="K510" s="8"/>
+      <c r="K510" s="7"/>
     </row>
     <row r="511" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="10" t="n">
+      <c r="A511" s="9" t="n">
         <v>2172808</v>
       </c>
       <c r="B511" s="0" t="s">
@@ -8766,7 +8762,7 @@
       </c>
     </row>
     <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="11" t="n">
+      <c r="A512" s="10" t="n">
         <v>21000612239</v>
       </c>
       <c r="B512" s="0" t="s">
@@ -8780,7 +8776,7 @@
       </c>
     </row>
     <row r="513" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="10" t="n">
+      <c r="A513" s="9" t="n">
         <v>21000658978</v>
       </c>
       <c r="B513" s="0" t="s">
@@ -8794,7 +8790,7 @@
       </c>
     </row>
     <row r="514" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="10" t="n">
+      <c r="A514" s="9" t="n">
         <v>21000653218</v>
       </c>
       <c r="B514" s="0" t="s">
@@ -8808,7 +8804,7 @@
       </c>
     </row>
     <row r="515" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="10" t="n">
+      <c r="A515" s="9" t="n">
         <v>21000067060</v>
       </c>
       <c r="B515" s="0" t="s">
@@ -8822,7 +8818,7 @@
       </c>
     </row>
     <row r="516" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="10" t="n">
+      <c r="A516" s="9" t="n">
         <v>2172808</v>
       </c>
       <c r="B516" s="0" t="s">
@@ -8836,7 +8832,7 @@
       </c>
     </row>
     <row r="517" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="11" t="n">
+      <c r="A517" s="10" t="n">
         <v>21000612239</v>
       </c>
       <c r="B517" s="0" t="s">
@@ -8850,7 +8846,7 @@
       </c>
     </row>
     <row r="518" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="10" t="n">
+      <c r="A518" s="9" t="n">
         <v>21000658978</v>
       </c>
       <c r="B518" s="0" t="s">
@@ -8864,7 +8860,7 @@
       </c>
     </row>
     <row r="519" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="10" t="n">
+      <c r="A519" s="9" t="n">
         <v>21000653218</v>
       </c>
       <c r="B519" s="0" t="s">
@@ -8878,7 +8874,7 @@
       </c>
     </row>
     <row r="520" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="10" t="n">
+      <c r="A520" s="9" t="n">
         <v>21000067060</v>
       </c>
       <c r="B520" s="0" t="s">
@@ -8892,7 +8888,7 @@
       </c>
     </row>
     <row r="521" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="10" t="n">
+      <c r="A521" s="9" t="n">
         <v>2172808</v>
       </c>
       <c r="B521" s="0" t="s">
@@ -8906,7 +8902,7 @@
       </c>
     </row>
     <row r="522" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="11" t="n">
+      <c r="A522" s="10" t="n">
         <v>21000612239</v>
       </c>
       <c r="B522" s="0" t="s">
@@ -8920,7 +8916,7 @@
       </c>
     </row>
     <row r="523" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="10" t="n">
+      <c r="A523" s="9" t="n">
         <v>21000658978</v>
       </c>
       <c r="B523" s="0" t="s">
@@ -8934,7 +8930,7 @@
       </c>
     </row>
     <row r="524" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="10" t="n">
+      <c r="A524" s="9" t="n">
         <v>21000653218</v>
       </c>
       <c r="B524" s="0" t="s">
@@ -8948,7 +8944,7 @@
       </c>
     </row>
     <row r="525" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="10" t="n">
+      <c r="A525" s="9" t="n">
         <v>21000067060</v>
       </c>
       <c r="B525" s="0" t="s">
@@ -8962,7 +8958,7 @@
       </c>
     </row>
     <row r="526" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="10" t="n">
+      <c r="A526" s="9" t="n">
         <v>2172808</v>
       </c>
       <c r="B526" s="0" t="s">
@@ -8976,7 +8972,7 @@
       </c>
     </row>
     <row r="527" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="11" t="n">
+      <c r="A527" s="10" t="n">
         <v>21000612239</v>
       </c>
       <c r="B527" s="0" t="s">
@@ -8990,7 +8986,7 @@
       </c>
     </row>
     <row r="528" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="10" t="n">
+      <c r="A528" s="9" t="n">
         <v>21000658978</v>
       </c>
       <c r="B528" s="0" t="s">
@@ -9004,7 +9000,7 @@
       </c>
     </row>
     <row r="529" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="10" t="n">
+      <c r="A529" s="9" t="n">
         <v>21000653218</v>
       </c>
       <c r="B529" s="0" t="s">
@@ -9018,7 +9014,7 @@
       </c>
     </row>
     <row r="530" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="10" t="n">
+      <c r="A530" s="9" t="n">
         <v>21000067060</v>
       </c>
       <c r="B530" s="0" t="s">
@@ -9032,7 +9028,7 @@
       </c>
     </row>
     <row r="531" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="10" t="n">
+      <c r="A531" s="9" t="n">
         <v>2172808</v>
       </c>
       <c r="B531" s="0" t="s">
@@ -9046,7 +9042,7 @@
       </c>
     </row>
     <row r="532" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="11" t="n">
+      <c r="A532" s="10" t="n">
         <v>21000612239</v>
       </c>
       <c r="B532" s="0" t="s">
@@ -9060,7 +9056,7 @@
       </c>
     </row>
     <row r="533" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="10" t="n">
+      <c r="A533" s="9" t="n">
         <v>21000658978</v>
       </c>
       <c r="B533" s="0" t="s">
@@ -9074,7 +9070,7 @@
       </c>
     </row>
     <row r="534" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="10" t="n">
+      <c r="A534" s="9" t="n">
         <v>21000653218</v>
       </c>
       <c r="B534" s="0" t="s">
@@ -9088,7 +9084,7 @@
       </c>
     </row>
     <row r="535" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="10" t="n">
+      <c r="A535" s="9" t="n">
         <v>21000067060</v>
       </c>
       <c r="B535" s="0" t="s">
@@ -9102,7 +9098,7 @@
       </c>
     </row>
     <row r="536" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="10" t="n">
+      <c r="A536" s="9" t="n">
         <v>2172808</v>
       </c>
       <c r="B536" s="0" t="s">
@@ -9116,7 +9112,7 @@
       </c>
     </row>
     <row r="537" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="11" t="n">
+      <c r="A537" s="10" t="n">
         <v>21000612239</v>
       </c>
       <c r="B537" s="0" t="s">
@@ -9130,7 +9126,7 @@
       </c>
     </row>
     <row r="538" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="10" t="n">
+      <c r="A538" s="9" t="n">
         <v>21000658978</v>
       </c>
       <c r="B538" s="0" t="s">
@@ -9144,7 +9140,7 @@
       </c>
     </row>
     <row r="539" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="10" t="n">
+      <c r="A539" s="9" t="n">
         <v>21000653218</v>
       </c>
       <c r="B539" s="0" t="s">
@@ -9158,7 +9154,7 @@
       </c>
     </row>
     <row r="540" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="10" t="n">
+      <c r="A540" s="9" t="n">
         <v>21000067060</v>
       </c>
       <c r="B540" s="0" t="s">
@@ -9172,7 +9168,7 @@
       </c>
     </row>
     <row r="541" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="10" t="n">
+      <c r="A541" s="9" t="n">
         <v>2172808</v>
       </c>
       <c r="B541" s="0" t="s">
@@ -9186,7 +9182,7 @@
       </c>
     </row>
     <row r="542" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="11" t="n">
+      <c r="A542" s="10" t="n">
         <v>21000612239</v>
       </c>
       <c r="B542" s="0" t="s">
@@ -9200,7 +9196,7 @@
       </c>
     </row>
     <row r="543" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="10" t="n">
+      <c r="A543" s="9" t="n">
         <v>21000658978</v>
       </c>
       <c r="B543" s="0" t="s">
@@ -9214,7 +9210,7 @@
       </c>
     </row>
     <row r="544" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="10" t="n">
+      <c r="A544" s="9" t="n">
         <v>21000653218</v>
       </c>
       <c r="B544" s="0" t="s">
@@ -9228,7 +9224,7 @@
       </c>
     </row>
     <row r="545" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="10" t="n">
+      <c r="A545" s="9" t="n">
         <v>21000067060</v>
       </c>
       <c r="B545" s="0" t="s">
@@ -9242,7 +9238,7 @@
       </c>
     </row>
     <row r="546" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="10" t="n">
+      <c r="A546" s="9" t="n">
         <v>2172808</v>
       </c>
       <c r="B546" s="0" t="s">
@@ -9256,7 +9252,7 @@
       </c>
     </row>
     <row r="547" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="11" t="n">
+      <c r="A547" s="10" t="n">
         <v>21000612239</v>
       </c>
       <c r="B547" s="0" t="s">
@@ -9270,7 +9266,7 @@
       </c>
     </row>
     <row r="548" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="10" t="n">
+      <c r="A548" s="9" t="n">
         <v>21000658978</v>
       </c>
       <c r="B548" s="0" t="s">
@@ -9284,7 +9280,7 @@
       </c>
     </row>
     <row r="549" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="10" t="n">
+      <c r="A549" s="9" t="n">
         <v>21000653218</v>
       </c>
       <c r="B549" s="0" t="s">
@@ -9298,7 +9294,7 @@
       </c>
     </row>
     <row r="550" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="10" t="n">
+      <c r="A550" s="9" t="n">
         <v>21000067060</v>
       </c>
       <c r="B550" s="0" t="s">
@@ -9312,7 +9308,7 @@
       </c>
     </row>
     <row r="551" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="10" t="n">
+      <c r="A551" s="9" t="n">
         <v>2172808</v>
       </c>
       <c r="B551" s="0" t="s">
@@ -9326,7 +9322,7 @@
       </c>
     </row>
     <row r="552" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="11" t="n">
+      <c r="A552" s="10" t="n">
         <v>21000612239</v>
       </c>
       <c r="B552" s="0" t="s">
@@ -9340,7 +9336,7 @@
       </c>
     </row>
     <row r="553" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="10" t="n">
+      <c r="A553" s="9" t="n">
         <v>21000658978</v>
       </c>
       <c r="B553" s="0" t="s">
@@ -9354,7 +9350,7 @@
       </c>
     </row>
     <row r="554" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="10" t="n">
+      <c r="A554" s="9" t="n">
         <v>21000653218</v>
       </c>
       <c r="B554" s="0" t="s">
@@ -9368,7 +9364,7 @@
       </c>
     </row>
     <row r="555" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="10" t="n">
+      <c r="A555" s="9" t="n">
         <v>21000067060</v>
       </c>
       <c r="B555" s="0" t="s">
@@ -9382,7 +9378,7 @@
       </c>
     </row>
     <row r="556" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="10" t="n">
+      <c r="A556" s="9" t="n">
         <v>2172808</v>
       </c>
       <c r="B556" s="0" t="s">
@@ -9396,7 +9392,7 @@
       </c>
     </row>
     <row r="557" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="11" t="n">
+      <c r="A557" s="10" t="n">
         <v>21000612239</v>
       </c>
       <c r="B557" s="0" t="s">
@@ -9410,7 +9406,7 @@
       </c>
     </row>
     <row r="558" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="10" t="n">
+      <c r="A558" s="9" t="n">
         <v>21000658978</v>
       </c>
       <c r="B558" s="0" t="s">
@@ -9424,7 +9420,7 @@
       </c>
     </row>
     <row r="559" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="10" t="n">
+      <c r="A559" s="9" t="n">
         <v>21000653218</v>
       </c>
       <c r="B559" s="0" t="s">
@@ -9438,7 +9434,7 @@
       </c>
     </row>
     <row r="560" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="10" t="n">
+      <c r="A560" s="9" t="n">
         <v>21000067060</v>
       </c>
       <c r="B560" s="0" t="s">
@@ -9452,7 +9448,7 @@
       </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="12" t="n">
+      <c r="A561" s="11" t="n">
         <v>21000611447</v>
       </c>
       <c r="B561" s="0" t="s">
@@ -9466,7 +9462,7 @@
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="12" t="n">
+      <c r="A562" s="11" t="n">
         <v>21000039814</v>
       </c>
       <c r="B562" s="0" t="s">
@@ -9480,7 +9476,7 @@
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="12" t="n">
+      <c r="A563" s="11" t="n">
         <v>21000044894</v>
       </c>
       <c r="B563" s="0" t="s">
@@ -9494,7 +9490,7 @@
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="12" t="n">
+      <c r="A564" s="11" t="n">
         <v>21000611461</v>
       </c>
       <c r="B564" s="0" t="s">
@@ -9508,7 +9504,7 @@
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="12" t="n">
+      <c r="A565" s="11" t="n">
         <v>21000050024</v>
       </c>
       <c r="B565" s="0" t="s">
@@ -9522,7 +9518,7 @@
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="12" t="n">
+      <c r="A566" s="11" t="n">
         <v>21000044900</v>
       </c>
       <c r="B566" s="0" t="s">
@@ -9536,7 +9532,7 @@
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="12" t="n">
+      <c r="A567" s="11" t="n">
         <v>21000604647</v>
       </c>
       <c r="B567" s="0" t="s">
@@ -9550,7 +9546,7 @@
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="12" t="n">
+      <c r="A568" s="11" t="n">
         <v>21000615261</v>
       </c>
       <c r="B568" s="0" t="s">
@@ -9564,7 +9560,7 @@
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="12" t="n">
+      <c r="A569" s="11" t="n">
         <v>21000604739</v>
       </c>
       <c r="B569" s="0" t="s">
@@ -9578,7 +9574,7 @@
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="12" t="n">
+      <c r="A570" s="11" t="n">
         <v>21000604692</v>
       </c>
       <c r="B570" s="0" t="s">
@@ -9592,7 +9588,7 @@
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="12" t="n">
+      <c r="A571" s="11" t="n">
         <v>21000024834</v>
       </c>
       <c r="B571" s="0" t="s">
@@ -9606,7 +9602,7 @@
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="12" t="n">
+      <c r="A572" s="11" t="n">
         <v>21000065646</v>
       </c>
       <c r="B572" s="0" t="s">
@@ -9620,7 +9616,7 @@
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="12" t="n">
+      <c r="A573" s="11" t="n">
         <v>21000616480</v>
       </c>
       <c r="B573" s="0" t="s">
@@ -9634,7 +9630,7 @@
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="12" t="n">
+      <c r="A574" s="11" t="n">
         <v>21000602605</v>
       </c>
       <c r="B574" s="0" t="s">
@@ -9648,7 +9644,7 @@
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="12" t="n">
+      <c r="A575" s="11" t="n">
         <v>21000604913</v>
       </c>
       <c r="B575" s="0" t="s">
@@ -9662,7 +9658,7 @@
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="12" t="n">
+      <c r="A576" s="11" t="n">
         <v>21000018505</v>
       </c>
       <c r="B576" s="0" t="s">
@@ -9676,7 +9672,7 @@
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="12" t="n">
+      <c r="A577" s="11" t="n">
         <v>21000018574</v>
       </c>
       <c r="B577" s="0" t="s">
@@ -9690,7 +9686,7 @@
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="12" t="n">
+      <c r="A578" s="11" t="n">
         <v>21000031306</v>
       </c>
       <c r="B578" s="0" t="s">
@@ -9704,7 +9700,7 @@
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="12" t="n">
+      <c r="A579" s="11" t="n">
         <v>21000031290</v>
       </c>
       <c r="B579" s="0" t="s">
@@ -9718,7 +9714,7 @@
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="12" t="n">
+      <c r="A580" s="11" t="n">
         <v>21000049080</v>
       </c>
       <c r="B580" s="0" t="s">
@@ -9732,7 +9728,7 @@
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="12" t="n">
+      <c r="A581" s="11" t="n">
         <v>21000018659</v>
       </c>
       <c r="B581" s="0" t="s">
@@ -9746,7 +9742,7 @@
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="12" t="n">
+      <c r="A582" s="11" t="n">
         <v>21000018567</v>
       </c>
       <c r="B582" s="0" t="s">
@@ -9760,7 +9756,7 @@
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="12" t="n">
+      <c r="A583" s="11" t="n">
         <v>21000018635</v>
       </c>
       <c r="B583" s="0" t="s">
@@ -9774,7 +9770,7 @@
       </c>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="12" t="n">
+      <c r="A584" s="11" t="n">
         <v>21000031313</v>
       </c>
       <c r="B584" s="0" t="s">
@@ -9788,7 +9784,7 @@
       </c>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="12" t="n">
+      <c r="A585" s="11" t="n">
         <v>21000048625</v>
       </c>
       <c r="B585" s="0" t="s">
@@ -9802,7 +9798,7 @@
       </c>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="12" t="n">
+      <c r="A586" s="11" t="n">
         <v>21000051717</v>
       </c>
       <c r="B586" s="0" t="s">
@@ -9816,7 +9812,7 @@
       </c>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="12" t="n">
+      <c r="A587" s="11" t="n">
         <v>21000049202</v>
       </c>
       <c r="B587" s="0" t="s">
@@ -9830,7 +9826,7 @@
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="12" t="n">
+      <c r="A588" s="11" t="n">
         <v>21000054954</v>
       </c>
       <c r="B588" s="0" t="s">
@@ -9844,7 +9840,7 @@
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="12" t="n">
+      <c r="A589" s="11" t="n">
         <v>21000054930</v>
       </c>
       <c r="B589" s="0" t="s">
@@ -9858,7 +9854,7 @@
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="12" t="n">
+      <c r="A590" s="11" t="n">
         <v>21000055104</v>
       </c>
       <c r="B590" s="0" t="s">
@@ -9872,7 +9868,7 @@
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="12" t="n">
+      <c r="A591" s="11" t="n">
         <v>21000055340</v>
       </c>
       <c r="B591" s="0" t="s">
@@ -9886,7 +9882,7 @@
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="12" t="n">
+      <c r="A592" s="11" t="n">
         <v>21000055364</v>
       </c>
       <c r="B592" s="0" t="s">
@@ -9900,7 +9896,7 @@
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="12" t="n">
+      <c r="A593" s="11" t="n">
         <v>21000054671</v>
       </c>
       <c r="B593" s="0" t="s">
@@ -9914,7 +9910,7 @@
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="12" t="n">
+      <c r="A594" s="11" t="n">
         <v>21000054657</v>
       </c>
       <c r="B594" s="0" t="s">
@@ -9928,7 +9924,7 @@
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="12" t="n">
+      <c r="A595" s="11" t="n">
         <v>21000055098</v>
       </c>
       <c r="B595" s="0" t="s">
@@ -9942,7 +9938,7 @@
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="12" t="n">
+      <c r="A596" s="11" t="n">
         <v>21000055135</v>
       </c>
       <c r="B596" s="0" t="s">
@@ -9956,7 +9952,7 @@
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="12" t="n">
+      <c r="A597" s="11" t="n">
         <v>21000054664</v>
       </c>
       <c r="B597" s="0" t="s">
@@ -9970,7 +9966,7 @@
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="12" t="n">
+      <c r="A598" s="11" t="n">
         <v>21000054947</v>
       </c>
       <c r="B598" s="0" t="s">
@@ -9984,7 +9980,7 @@
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="12" t="n">
+      <c r="A599" s="11" t="n">
         <v>21000055159</v>
       </c>
       <c r="B599" s="0" t="s">
@@ -9998,7 +9994,7 @@
       </c>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="12" t="n">
+      <c r="A600" s="11" t="n">
         <v>21000054411</v>
       </c>
       <c r="B600" s="0" t="s">
@@ -10012,7 +10008,7 @@
       </c>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="12" t="n">
+      <c r="A601" s="11" t="n">
         <v>21000054466</v>
       </c>
       <c r="B601" s="0" t="s">
@@ -10026,7 +10022,7 @@
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="12" t="n">
+      <c r="A602" s="11" t="n">
         <v>21000055012</v>
       </c>
       <c r="B602" s="0" t="s">
@@ -10040,7 +10036,7 @@
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="12" t="n">
+      <c r="A603" s="11" t="n">
         <v>21000054473</v>
       </c>
       <c r="B603" s="0" t="s">
@@ -10054,7 +10050,7 @@
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="12" t="n">
+      <c r="A604" s="11" t="n">
         <v>21000068500</v>
       </c>
       <c r="B604" s="0" t="s">
@@ -10068,7 +10064,7 @@
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="12" t="n">
+      <c r="A605" s="11" t="n">
         <v>21000068494</v>
       </c>
       <c r="B605" s="0" t="s">
@@ -10082,7 +10078,7 @@
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="12" t="n">
+      <c r="A606" s="11" t="n">
         <v>21000066834</v>
       </c>
       <c r="B606" s="0" t="s">
@@ -10096,7 +10092,7 @@
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="12" t="n">
+      <c r="A607" s="11" t="n">
         <v>21000060177</v>
       </c>
       <c r="B607" s="0" t="s">
@@ -10110,7 +10106,7 @@
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="12" t="n">
+      <c r="A608" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B608" s="0" t="s">
@@ -10124,7 +10120,7 @@
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="12" t="n">
+      <c r="A609" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B609" s="0" t="s">
@@ -10138,7 +10134,7 @@
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="12" t="n">
+      <c r="A610" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B610" s="0" t="s">
@@ -10152,7 +10148,7 @@
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="12" t="n">
+      <c r="A611" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B611" s="0" t="s">
@@ -10166,7 +10162,7 @@
       </c>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="12" t="n">
+      <c r="A612" s="11" t="n">
         <v>21000007516</v>
       </c>
       <c r="B612" s="0" t="s">
@@ -10180,7 +10176,7 @@
       </c>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="12" t="n">
+      <c r="A613" s="11" t="n">
         <v>21000007509</v>
       </c>
       <c r="B613" s="0" t="s">
@@ -10194,7 +10190,7 @@
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="12" t="n">
+      <c r="A614" s="11" t="n">
         <v>21000001965</v>
       </c>
       <c r="B614" s="0" t="s">
@@ -10208,7 +10204,7 @@
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="12" t="n">
+      <c r="A615" s="11" t="n">
         <v>21000000883</v>
       </c>
       <c r="B615" s="0" t="s">
@@ -10222,7 +10218,7 @@
       </c>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="12" t="n">
+      <c r="A616" s="11" t="n">
         <v>21000001989</v>
       </c>
       <c r="B616" s="0" t="s">
@@ -10236,7 +10232,7 @@
       </c>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="12" t="n">
+      <c r="A617" s="11" t="n">
         <v>21000002016</v>
       </c>
       <c r="B617" s="0" t="s">
@@ -10250,7 +10246,7 @@
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="12" t="n">
+      <c r="A618" s="11" t="n">
         <v>21000001941</v>
       </c>
       <c r="B618" s="0" t="s">
@@ -10264,7 +10260,7 @@
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="12" t="n">
+      <c r="A619" s="11" t="n">
         <v>21000009039</v>
       </c>
       <c r="B619" s="0" t="s">
@@ -10278,7 +10274,7 @@
       </c>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="12" t="n">
+      <c r="A620" s="11" t="n">
         <v>21000009053</v>
       </c>
       <c r="B620" s="0" t="s">
@@ -10292,7 +10288,7 @@
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="12" t="n">
+      <c r="A621" s="11" t="n">
         <v>21000009008</v>
       </c>
       <c r="B621" s="0" t="s">
@@ -10306,7 +10302,7 @@
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="12" t="n">
+      <c r="A622" s="11" t="n">
         <v>71040065045</v>
       </c>
       <c r="B622" s="0" t="s">
@@ -10320,7 +10316,7 @@
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="12" t="n">
+      <c r="A623" s="11" t="n">
         <v>71040065311</v>
       </c>
       <c r="B623" s="0" t="s">
@@ -10334,7 +10330,7 @@
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="12" t="n">
+      <c r="A624" s="11" t="n">
         <v>21000011162</v>
       </c>
       <c r="B624" s="0" t="s">
@@ -10348,7 +10344,7 @@
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="12" t="n">
+      <c r="A625" s="11" t="n">
         <v>71040000152</v>
       </c>
       <c r="B625" s="0" t="s">
@@ -10362,7 +10358,7 @@
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="12" t="n">
+      <c r="A626" s="11" t="n">
         <v>71040000602</v>
       </c>
       <c r="B626" s="0" t="s">
@@ -10376,7 +10372,7 @@
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="12" t="n">
+      <c r="A627" s="11" t="n">
         <v>21000611447</v>
       </c>
       <c r="B627" s="0" t="s">
@@ -10390,7 +10386,7 @@
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="12" t="n">
+      <c r="A628" s="11" t="n">
         <v>21000039814</v>
       </c>
       <c r="B628" s="0" t="s">
@@ -10404,7 +10400,7 @@
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="12" t="n">
+      <c r="A629" s="11" t="n">
         <v>21000044894</v>
       </c>
       <c r="B629" s="0" t="s">
@@ -10418,7 +10414,7 @@
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="12" t="n">
+      <c r="A630" s="11" t="n">
         <v>21000611461</v>
       </c>
       <c r="B630" s="0" t="s">
@@ -10432,7 +10428,7 @@
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="12" t="n">
+      <c r="A631" s="11" t="n">
         <v>21000044900</v>
       </c>
       <c r="B631" s="0" t="s">
@@ -10446,7 +10442,7 @@
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="12" t="n">
+      <c r="A632" s="11" t="n">
         <v>21000604647</v>
       </c>
       <c r="B632" s="0" t="s">
@@ -10460,7 +10456,7 @@
       </c>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="12" t="n">
+      <c r="A633" s="11" t="n">
         <v>21000615261</v>
       </c>
       <c r="B633" s="0" t="s">
@@ -10474,7 +10470,7 @@
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="12" t="n">
+      <c r="A634" s="11" t="n">
         <v>21000604739</v>
       </c>
       <c r="B634" s="0" t="s">
@@ -10488,7 +10484,7 @@
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="12" t="n">
+      <c r="A635" s="11" t="n">
         <v>21000604692</v>
       </c>
       <c r="B635" s="0" t="s">
@@ -10502,7 +10498,7 @@
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="12" t="n">
+      <c r="A636" s="11" t="n">
         <v>21000024834</v>
       </c>
       <c r="B636" s="0" t="s">
@@ -10516,7 +10512,7 @@
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="12" t="n">
+      <c r="A637" s="11" t="n">
         <v>21000065646</v>
       </c>
       <c r="B637" s="0" t="s">
@@ -10530,7 +10526,7 @@
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="12" t="n">
+      <c r="A638" s="11" t="n">
         <v>21000616480</v>
       </c>
       <c r="B638" s="0" t="s">
@@ -10544,7 +10540,7 @@
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="12" t="n">
+      <c r="A639" s="11" t="n">
         <v>21000602605</v>
       </c>
       <c r="B639" s="0" t="s">
@@ -10558,7 +10554,7 @@
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="12" t="n">
+      <c r="A640" s="11" t="n">
         <v>21000604913</v>
       </c>
       <c r="B640" s="0" t="s">
@@ -10572,7 +10568,7 @@
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="12" t="n">
+      <c r="A641" s="11" t="n">
         <v>21000018505</v>
       </c>
       <c r="B641" s="0" t="s">
@@ -10586,7 +10582,7 @@
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="12" t="n">
+      <c r="A642" s="11" t="n">
         <v>21000018574</v>
       </c>
       <c r="B642" s="0" t="s">
@@ -10600,7 +10596,7 @@
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="12" t="n">
+      <c r="A643" s="11" t="n">
         <v>21000031306</v>
       </c>
       <c r="B643" s="0" t="s">
@@ -10614,7 +10610,7 @@
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="12" t="n">
+      <c r="A644" s="11" t="n">
         <v>21000031290</v>
       </c>
       <c r="B644" s="0" t="s">
@@ -10628,7 +10624,7 @@
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="12" t="n">
+      <c r="A645" s="11" t="n">
         <v>21000049080</v>
       </c>
       <c r="B645" s="0" t="s">
@@ -10642,7 +10638,7 @@
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="12" t="n">
+      <c r="A646" s="11" t="n">
         <v>21000018659</v>
       </c>
       <c r="B646" s="0" t="s">
@@ -10656,7 +10652,7 @@
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="12" t="n">
+      <c r="A647" s="11" t="n">
         <v>21000018567</v>
       </c>
       <c r="B647" s="0" t="s">
@@ -10670,7 +10666,7 @@
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="12" t="n">
+      <c r="A648" s="11" t="n">
         <v>21000018635</v>
       </c>
       <c r="B648" s="0" t="s">
@@ -10684,7 +10680,7 @@
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="12" t="n">
+      <c r="A649" s="11" t="n">
         <v>21000031313</v>
       </c>
       <c r="B649" s="0" t="s">
@@ -10698,7 +10694,7 @@
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="12" t="n">
+      <c r="A650" s="11" t="n">
         <v>21000048625</v>
       </c>
       <c r="B650" s="0" t="s">
@@ -10712,7 +10708,7 @@
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="12" t="n">
+      <c r="A651" s="11" t="n">
         <v>21000051717</v>
       </c>
       <c r="B651" s="0" t="s">
@@ -10726,7 +10722,7 @@
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="12" t="n">
+      <c r="A652" s="11" t="n">
         <v>21000049202</v>
       </c>
       <c r="B652" s="0" t="s">
@@ -10740,7 +10736,7 @@
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="12" t="n">
+      <c r="A653" s="11" t="n">
         <v>21000054954</v>
       </c>
       <c r="B653" s="0" t="s">
@@ -10754,7 +10750,7 @@
       </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="12" t="n">
+      <c r="A654" s="11" t="n">
         <v>21000054930</v>
       </c>
       <c r="B654" s="0" t="s">
@@ -10768,7 +10764,7 @@
       </c>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="12" t="n">
+      <c r="A655" s="11" t="n">
         <v>21000055104</v>
       </c>
       <c r="B655" s="0" t="s">
@@ -10782,7 +10778,7 @@
       </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="12" t="n">
+      <c r="A656" s="11" t="n">
         <v>21000055340</v>
       </c>
       <c r="B656" s="0" t="s">
@@ -10796,7 +10792,7 @@
       </c>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="12" t="n">
+      <c r="A657" s="11" t="n">
         <v>21000055364</v>
       </c>
       <c r="B657" s="0" t="s">
@@ -10810,7 +10806,7 @@
       </c>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="12" t="n">
+      <c r="A658" s="11" t="n">
         <v>21000054671</v>
       </c>
       <c r="B658" s="0" t="s">
@@ -10824,7 +10820,7 @@
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="12" t="n">
+      <c r="A659" s="11" t="n">
         <v>21000054657</v>
       </c>
       <c r="B659" s="0" t="s">
@@ -10838,7 +10834,7 @@
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="12" t="n">
+      <c r="A660" s="11" t="n">
         <v>21000055098</v>
       </c>
       <c r="B660" s="0" t="s">
@@ -10852,7 +10848,7 @@
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="12" t="n">
+      <c r="A661" s="11" t="n">
         <v>21000055135</v>
       </c>
       <c r="B661" s="0" t="s">
@@ -10866,7 +10862,7 @@
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="12" t="n">
+      <c r="A662" s="11" t="n">
         <v>21000054664</v>
       </c>
       <c r="B662" s="0" t="s">
@@ -10880,7 +10876,7 @@
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="12" t="n">
+      <c r="A663" s="11" t="n">
         <v>21000054947</v>
       </c>
       <c r="B663" s="0" t="s">
@@ -10894,7 +10890,7 @@
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="12" t="n">
+      <c r="A664" s="11" t="n">
         <v>21000055159</v>
       </c>
       <c r="B664" s="0" t="s">
@@ -10908,7 +10904,7 @@
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="12" t="n">
+      <c r="A665" s="11" t="n">
         <v>21000054411</v>
       </c>
       <c r="B665" s="0" t="s">
@@ -10922,7 +10918,7 @@
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="12" t="n">
+      <c r="A666" s="11" t="n">
         <v>21000054466</v>
       </c>
       <c r="B666" s="0" t="s">
@@ -10936,7 +10932,7 @@
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="12" t="n">
+      <c r="A667" s="11" t="n">
         <v>21000055012</v>
       </c>
       <c r="B667" s="0" t="s">
@@ -10950,7 +10946,7 @@
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="12" t="n">
+      <c r="A668" s="11" t="n">
         <v>21000054473</v>
       </c>
       <c r="B668" s="0" t="s">
@@ -10964,7 +10960,7 @@
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="12" t="n">
+      <c r="A669" s="11" t="n">
         <v>21000068500</v>
       </c>
       <c r="B669" s="0" t="s">
@@ -10978,7 +10974,7 @@
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="12" t="n">
+      <c r="A670" s="11" t="n">
         <v>21000068494</v>
       </c>
       <c r="B670" s="0" t="s">
@@ -10992,7 +10988,7 @@
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="12" t="n">
+      <c r="A671" s="11" t="n">
         <v>21000066834</v>
       </c>
       <c r="B671" s="0" t="s">
@@ -11006,7 +11002,7 @@
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="12" t="n">
+      <c r="A672" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B672" s="0" t="s">
@@ -11020,7 +11016,7 @@
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="12" t="n">
+      <c r="A673" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B673" s="0" t="s">
@@ -11034,7 +11030,7 @@
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="12" t="n">
+      <c r="A674" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B674" s="0" t="s">
@@ -11048,7 +11044,7 @@
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="12" t="n">
+      <c r="A675" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B675" s="0" t="s">
@@ -11062,7 +11058,7 @@
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="12" t="n">
+      <c r="A676" s="11" t="n">
         <v>21000007516</v>
       </c>
       <c r="B676" s="0" t="s">
@@ -11076,7 +11072,7 @@
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="12" t="n">
+      <c r="A677" s="11" t="n">
         <v>21000007509</v>
       </c>
       <c r="B677" s="0" t="s">
@@ -11090,7 +11086,7 @@
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="12" t="n">
+      <c r="A678" s="11" t="n">
         <v>21000001965</v>
       </c>
       <c r="B678" s="0" t="s">
@@ -11104,7 +11100,7 @@
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="12" t="n">
+      <c r="A679" s="11" t="n">
         <v>21000000883</v>
       </c>
       <c r="B679" s="0" t="s">
@@ -11118,7 +11114,7 @@
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="12" t="n">
+      <c r="A680" s="11" t="n">
         <v>21000001989</v>
       </c>
       <c r="B680" s="0" t="s">
@@ -11132,7 +11128,7 @@
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="12" t="n">
+      <c r="A681" s="11" t="n">
         <v>21000002016</v>
       </c>
       <c r="B681" s="0" t="s">
@@ -11146,7 +11142,7 @@
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="12" t="n">
+      <c r="A682" s="11" t="n">
         <v>21000001941</v>
       </c>
       <c r="B682" s="0" t="s">
@@ -11160,7 +11156,7 @@
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="12" t="n">
+      <c r="A683" s="11" t="n">
         <v>21000009039</v>
       </c>
       <c r="B683" s="0" t="s">
@@ -11174,7 +11170,7 @@
       </c>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="12" t="n">
+      <c r="A684" s="11" t="n">
         <v>21000009053</v>
       </c>
       <c r="B684" s="0" t="s">
@@ -11188,7 +11184,7 @@
       </c>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="12" t="n">
+      <c r="A685" s="11" t="n">
         <v>21000009008</v>
       </c>
       <c r="B685" s="0" t="s">
@@ -11202,7 +11198,7 @@
       </c>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="12" t="n">
+      <c r="A686" s="11" t="n">
         <v>71040065045</v>
       </c>
       <c r="B686" s="0" t="s">
@@ -11216,7 +11212,7 @@
       </c>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="12" t="n">
+      <c r="A687" s="11" t="n">
         <v>71040065311</v>
       </c>
       <c r="B687" s="0" t="s">
@@ -11230,7 +11226,7 @@
       </c>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="12" t="n">
+      <c r="A688" s="11" t="n">
         <v>21000011162</v>
       </c>
       <c r="B688" s="0" t="s">
@@ -11244,7 +11240,7 @@
       </c>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="12" t="n">
+      <c r="A689" s="11" t="n">
         <v>21000611447</v>
       </c>
       <c r="B689" s="0" t="s">
@@ -11258,7 +11254,7 @@
       </c>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="12" t="n">
+      <c r="A690" s="11" t="n">
         <v>21000039814</v>
       </c>
       <c r="B690" s="0" t="s">
@@ -11272,7 +11268,7 @@
       </c>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="12" t="n">
+      <c r="A691" s="11" t="n">
         <v>21000044894</v>
       </c>
       <c r="B691" s="0" t="s">
@@ -11286,7 +11282,7 @@
       </c>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="12" t="n">
+      <c r="A692" s="11" t="n">
         <v>21000611461</v>
       </c>
       <c r="B692" s="0" t="s">
@@ -11300,7 +11296,7 @@
       </c>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="12" t="n">
+      <c r="A693" s="11" t="n">
         <v>21000604647</v>
       </c>
       <c r="B693" s="0" t="s">
@@ -11314,7 +11310,7 @@
       </c>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="12" t="n">
+      <c r="A694" s="11" t="n">
         <v>21000615261</v>
       </c>
       <c r="B694" s="0" t="s">
@@ -11328,7 +11324,7 @@
       </c>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="12" t="n">
+      <c r="A695" s="11" t="n">
         <v>21000604739</v>
       </c>
       <c r="B695" s="0" t="s">
@@ -11342,7 +11338,7 @@
       </c>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="12" t="n">
+      <c r="A696" s="11" t="n">
         <v>21000604692</v>
       </c>
       <c r="B696" s="0" t="s">
@@ -11356,7 +11352,7 @@
       </c>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="12" t="n">
+      <c r="A697" s="11" t="n">
         <v>21000024834</v>
       </c>
       <c r="B697" s="0" t="s">
@@ -11370,7 +11366,7 @@
       </c>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="12" t="n">
+      <c r="A698" s="11" t="n">
         <v>21000616480</v>
       </c>
       <c r="B698" s="0" t="s">
@@ -11384,7 +11380,7 @@
       </c>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="12" t="n">
+      <c r="A699" s="11" t="n">
         <v>21000018505</v>
       </c>
       <c r="B699" s="0" t="s">
@@ -11398,7 +11394,7 @@
       </c>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="12" t="n">
+      <c r="A700" s="11" t="n">
         <v>21000018574</v>
       </c>
       <c r="B700" s="0" t="s">
@@ -11412,7 +11408,7 @@
       </c>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="12" t="n">
+      <c r="A701" s="11" t="n">
         <v>21000031306</v>
       </c>
       <c r="B701" s="0" t="s">
@@ -11426,7 +11422,7 @@
       </c>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="12" t="n">
+      <c r="A702" s="11" t="n">
         <v>21000031290</v>
       </c>
       <c r="B702" s="0" t="s">
@@ -11440,7 +11436,7 @@
       </c>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="12" t="n">
+      <c r="A703" s="11" t="n">
         <v>21000018659</v>
       </c>
       <c r="B703" s="0" t="s">
@@ -11454,7 +11450,7 @@
       </c>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="12" t="n">
+      <c r="A704" s="11" t="n">
         <v>21000018567</v>
       </c>
       <c r="B704" s="0" t="s">
@@ -11468,7 +11464,7 @@
       </c>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="12" t="n">
+      <c r="A705" s="11" t="n">
         <v>21000048625</v>
       </c>
       <c r="B705" s="0" t="s">
@@ -11482,7 +11478,7 @@
       </c>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="12" t="n">
+      <c r="A706" s="11" t="n">
         <v>21000054954</v>
       </c>
       <c r="B706" s="0" t="s">
@@ -11496,7 +11492,7 @@
       </c>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="12" t="n">
+      <c r="A707" s="11" t="n">
         <v>21000054930</v>
       </c>
       <c r="B707" s="0" t="s">
@@ -11510,7 +11506,7 @@
       </c>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="12" t="n">
+      <c r="A708" s="11" t="n">
         <v>21000055104</v>
       </c>
       <c r="B708" s="0" t="s">
@@ -11524,7 +11520,7 @@
       </c>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="12" t="n">
+      <c r="A709" s="11" t="n">
         <v>21000055364</v>
       </c>
       <c r="B709" s="0" t="s">
@@ -11538,7 +11534,7 @@
       </c>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="12" t="n">
+      <c r="A710" s="11" t="n">
         <v>21000054671</v>
       </c>
       <c r="B710" s="0" t="s">
@@ -11552,7 +11548,7 @@
       </c>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="12" t="n">
+      <c r="A711" s="11" t="n">
         <v>21000054657</v>
       </c>
       <c r="B711" s="0" t="s">
@@ -11566,7 +11562,7 @@
       </c>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="12" t="n">
+      <c r="A712" s="11" t="n">
         <v>21000055098</v>
       </c>
       <c r="B712" s="0" t="s">
@@ -11580,7 +11576,7 @@
       </c>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="12" t="n">
+      <c r="A713" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B713" s="0" t="s">
@@ -11594,7 +11590,7 @@
       </c>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="12" t="n">
+      <c r="A714" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B714" s="0" t="s">
@@ -11608,7 +11604,7 @@
       </c>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="12" t="n">
+      <c r="A715" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B715" s="0" t="s">
@@ -11622,7 +11618,7 @@
       </c>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="12" t="n">
+      <c r="A716" s="11" t="n">
         <v>21000007516</v>
       </c>
       <c r="B716" s="0" t="s">
@@ -11636,7 +11632,7 @@
       </c>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="12" t="n">
+      <c r="A717" s="11" t="n">
         <v>21000007509</v>
       </c>
       <c r="B717" s="0" t="s">
@@ -11650,7 +11646,7 @@
       </c>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="12" t="n">
+      <c r="A718" s="11" t="n">
         <v>21000001965</v>
       </c>
       <c r="B718" s="0" t="s">
@@ -11664,7 +11660,7 @@
       </c>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="12" t="n">
+      <c r="A719" s="11" t="n">
         <v>21000000883</v>
       </c>
       <c r="B719" s="0" t="s">
@@ -11678,7 +11674,7 @@
       </c>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="12" t="n">
+      <c r="A720" s="11" t="n">
         <v>21000009039</v>
       </c>
       <c r="B720" s="0" t="s">
@@ -11692,7 +11688,7 @@
       </c>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="12" t="n">
+      <c r="A721" s="11" t="n">
         <v>21000009053</v>
       </c>
       <c r="B721" s="0" t="s">
@@ -11706,7 +11702,7 @@
       </c>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="12" t="n">
+      <c r="A722" s="11" t="n">
         <v>21000009008</v>
       </c>
       <c r="B722" s="0" t="s">
@@ -11720,7 +11716,7 @@
       </c>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="12" t="n">
+      <c r="A723" s="11" t="n">
         <v>21000011162</v>
       </c>
       <c r="B723" s="0" t="s">
@@ -11734,7 +11730,7 @@
       </c>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="12" t="n">
+      <c r="A724" s="11" t="n">
         <v>21000611447</v>
       </c>
       <c r="B724" s="0" t="s">
@@ -11748,7 +11744,7 @@
       </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="12" t="n">
+      <c r="A725" s="11" t="n">
         <v>21000039814</v>
       </c>
       <c r="B725" s="0" t="s">
@@ -11762,7 +11758,7 @@
       </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="12" t="n">
+      <c r="A726" s="11" t="n">
         <v>21000044894</v>
       </c>
       <c r="B726" s="0" t="s">
@@ -11776,7 +11772,7 @@
       </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="12" t="n">
+      <c r="A727" s="11" t="n">
         <v>21000611461</v>
       </c>
       <c r="B727" s="0" t="s">
@@ -11790,7 +11786,7 @@
       </c>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="12" t="n">
+      <c r="A728" s="11" t="n">
         <v>21000604647</v>
       </c>
       <c r="B728" s="0" t="s">
@@ -11804,7 +11800,7 @@
       </c>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="12" t="n">
+      <c r="A729" s="11" t="n">
         <v>21000615261</v>
       </c>
       <c r="B729" s="0" t="s">
@@ -11818,7 +11814,7 @@
       </c>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="12" t="n">
+      <c r="A730" s="11" t="n">
         <v>21000604739</v>
       </c>
       <c r="B730" s="0" t="s">
@@ -11832,7 +11828,7 @@
       </c>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="12" t="n">
+      <c r="A731" s="11" t="n">
         <v>21000604692</v>
       </c>
       <c r="B731" s="0" t="s">
@@ -11846,7 +11842,7 @@
       </c>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="12" t="n">
+      <c r="A732" s="11" t="n">
         <v>21000024834</v>
       </c>
       <c r="B732" s="0" t="s">
@@ -11860,7 +11856,7 @@
       </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="12" t="n">
+      <c r="A733" s="11" t="n">
         <v>21000018505</v>
       </c>
       <c r="B733" s="0" t="s">
@@ -11874,7 +11870,7 @@
       </c>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="12" t="n">
+      <c r="A734" s="11" t="n">
         <v>21000018574</v>
       </c>
       <c r="B734" s="0" t="s">
@@ -11888,7 +11884,7 @@
       </c>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="12" t="n">
+      <c r="A735" s="11" t="n">
         <v>21000031306</v>
       </c>
       <c r="B735" s="0" t="s">
@@ -11902,7 +11898,7 @@
       </c>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="12" t="n">
+      <c r="A736" s="11" t="n">
         <v>21000031290</v>
       </c>
       <c r="B736" s="0" t="s">
@@ -11916,7 +11912,7 @@
       </c>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="12" t="n">
+      <c r="A737" s="11" t="n">
         <v>21000018659</v>
       </c>
       <c r="B737" s="0" t="s">
@@ -11930,7 +11926,7 @@
       </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="12" t="n">
+      <c r="A738" s="11" t="n">
         <v>21000018567</v>
       </c>
       <c r="B738" s="0" t="s">
@@ -11944,7 +11940,7 @@
       </c>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="12" t="n">
+      <c r="A739" s="11" t="n">
         <v>21000048625</v>
       </c>
       <c r="B739" s="0" t="s">
@@ -11958,7 +11954,7 @@
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="12" t="n">
+      <c r="A740" s="11" t="n">
         <v>21000051700</v>
       </c>
       <c r="B740" s="0" t="s">
@@ -11972,7 +11968,7 @@
       </c>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="12" t="n">
+      <c r="A741" s="11" t="n">
         <v>21000054954</v>
       </c>
       <c r="B741" s="0" t="s">
@@ -11986,7 +11982,7 @@
       </c>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="12" t="n">
+      <c r="A742" s="11" t="n">
         <v>21000054930</v>
       </c>
       <c r="B742" s="0" t="s">
@@ -12000,7 +11996,7 @@
       </c>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="12" t="n">
+      <c r="A743" s="11" t="n">
         <v>21000055104</v>
       </c>
       <c r="B743" s="0" t="s">
@@ -12014,7 +12010,7 @@
       </c>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="12" t="n">
+      <c r="A744" s="11" t="n">
         <v>21000055364</v>
       </c>
       <c r="B744" s="0" t="s">
@@ -12028,7 +12024,7 @@
       </c>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="12" t="n">
+      <c r="A745" s="11" t="n">
         <v>21000054671</v>
       </c>
       <c r="B745" s="0" t="s">
@@ -12042,7 +12038,7 @@
       </c>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="12" t="n">
+      <c r="A746" s="11" t="n">
         <v>21000054657</v>
       </c>
       <c r="B746" s="0" t="s">
@@ -12056,7 +12052,7 @@
       </c>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="12" t="n">
+      <c r="A747" s="11" t="n">
         <v>21000055098</v>
       </c>
       <c r="B747" s="0" t="s">
@@ -12070,7 +12066,7 @@
       </c>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="12" t="n">
+      <c r="A748" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B748" s="0" t="s">
@@ -12084,7 +12080,7 @@
       </c>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="12" t="n">
+      <c r="A749" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B749" s="0" t="s">
@@ -12098,7 +12094,7 @@
       </c>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="12" t="n">
+      <c r="A750" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B750" s="0" t="s">
@@ -12112,7 +12108,7 @@
       </c>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="12" t="n">
+      <c r="A751" s="11" t="n">
         <v>21000007516</v>
       </c>
       <c r="B751" s="0" t="s">
@@ -12126,7 +12122,7 @@
       </c>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="12" t="n">
+      <c r="A752" s="11" t="n">
         <v>21000007509</v>
       </c>
       <c r="B752" s="0" t="s">
@@ -12140,7 +12136,7 @@
       </c>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="12" t="n">
+      <c r="A753" s="11" t="n">
         <v>21000001965</v>
       </c>
       <c r="B753" s="0" t="s">
@@ -12154,7 +12150,7 @@
       </c>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="12" t="n">
+      <c r="A754" s="11" t="n">
         <v>21000000883</v>
       </c>
       <c r="B754" s="0" t="s">
@@ -12168,7 +12164,7 @@
       </c>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="12" t="n">
+      <c r="A755" s="11" t="n">
         <v>21000009039</v>
       </c>
       <c r="B755" s="0" t="s">
@@ -12182,7 +12178,7 @@
       </c>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="12" t="n">
+      <c r="A756" s="11" t="n">
         <v>21000009053</v>
       </c>
       <c r="B756" s="0" t="s">
@@ -12196,7 +12192,7 @@
       </c>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="12" t="n">
+      <c r="A757" s="11" t="n">
         <v>21000009008</v>
       </c>
       <c r="B757" s="0" t="s">
@@ -12210,7 +12206,7 @@
       </c>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="12" t="n">
+      <c r="A758" s="11" t="n">
         <v>21000011162</v>
       </c>
       <c r="B758" s="0" t="s">
@@ -12224,7 +12220,7 @@
       </c>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="12" t="n">
+      <c r="A759" s="11" t="n">
         <v>21000611447</v>
       </c>
       <c r="B759" s="0" t="s">
@@ -12238,7 +12234,7 @@
       </c>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="12" t="n">
+      <c r="A760" s="11" t="n">
         <v>21000039814</v>
       </c>
       <c r="B760" s="0" t="s">
@@ -12252,7 +12248,7 @@
       </c>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="12" t="n">
+      <c r="A761" s="11" t="n">
         <v>21000044894</v>
       </c>
       <c r="B761" s="0" t="s">
@@ -12266,7 +12262,7 @@
       </c>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="12" t="n">
+      <c r="A762" s="11" t="n">
         <v>21000611461</v>
       </c>
       <c r="B762" s="0" t="s">
@@ -12280,7 +12276,7 @@
       </c>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="12" t="n">
+      <c r="A763" s="11" t="n">
         <v>21000050024</v>
       </c>
       <c r="B763" s="0" t="s">
@@ -12294,7 +12290,7 @@
       </c>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="12" t="n">
+      <c r="A764" s="11" t="n">
         <v>21000044900</v>
       </c>
       <c r="B764" s="0" t="s">
@@ -12308,7 +12304,7 @@
       </c>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="12" t="n">
+      <c r="A765" s="11" t="n">
         <v>21000604647</v>
       </c>
       <c r="B765" s="0" t="s">
@@ -12322,7 +12318,7 @@
       </c>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="12" t="n">
+      <c r="A766" s="11" t="n">
         <v>21000615261</v>
       </c>
       <c r="B766" s="0" t="s">
@@ -12336,7 +12332,7 @@
       </c>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="12" t="n">
+      <c r="A767" s="11" t="n">
         <v>21000604739</v>
       </c>
       <c r="B767" s="0" t="s">
@@ -12350,7 +12346,7 @@
       </c>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="12" t="n">
+      <c r="A768" s="11" t="n">
         <v>21000604692</v>
       </c>
       <c r="B768" s="0" t="s">
@@ -12364,7 +12360,7 @@
       </c>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="12" t="n">
+      <c r="A769" s="11" t="n">
         <v>21000024834</v>
       </c>
       <c r="B769" s="0" t="s">
@@ -12378,7 +12374,7 @@
       </c>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="12" t="n">
+      <c r="A770" s="11" t="n">
         <v>21000616480</v>
       </c>
       <c r="B770" s="0" t="s">
@@ -12392,7 +12388,7 @@
       </c>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="12" t="n">
+      <c r="A771" s="11" t="n">
         <v>21000602605</v>
       </c>
       <c r="B771" s="0" t="s">
@@ -12406,7 +12402,7 @@
       </c>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="12" t="n">
+      <c r="A772" s="11" t="n">
         <v>21000018505</v>
       </c>
       <c r="B772" s="0" t="s">
@@ -12420,7 +12416,7 @@
       </c>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="12" t="n">
+      <c r="A773" s="11" t="n">
         <v>21000018574</v>
       </c>
       <c r="B773" s="0" t="s">
@@ -12434,7 +12430,7 @@
       </c>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="12" t="n">
+      <c r="A774" s="11" t="n">
         <v>21000031306</v>
       </c>
       <c r="B774" s="0" t="s">
@@ -12448,7 +12444,7 @@
       </c>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="12" t="n">
+      <c r="A775" s="11" t="n">
         <v>21000031290</v>
       </c>
       <c r="B775" s="0" t="s">
@@ -12462,7 +12458,7 @@
       </c>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="12" t="n">
+      <c r="A776" s="11" t="n">
         <v>21000049080</v>
       </c>
       <c r="B776" s="0" t="s">
@@ -12476,7 +12472,7 @@
       </c>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="12" t="n">
+      <c r="A777" s="11" t="n">
         <v>21000018659</v>
       </c>
       <c r="B777" s="0" t="s">
@@ -12490,7 +12486,7 @@
       </c>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="12" t="n">
+      <c r="A778" s="11" t="n">
         <v>21000018567</v>
       </c>
       <c r="B778" s="0" t="s">
@@ -12504,7 +12500,7 @@
       </c>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="12" t="n">
+      <c r="A779" s="11" t="n">
         <v>21000018635</v>
       </c>
       <c r="B779" s="0" t="s">
@@ -12518,7 +12514,7 @@
       </c>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="12" t="n">
+      <c r="A780" s="11" t="n">
         <v>21000031313</v>
       </c>
       <c r="B780" s="0" t="s">
@@ -12532,7 +12528,7 @@
       </c>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="12" t="n">
+      <c r="A781" s="11" t="n">
         <v>21000048625</v>
       </c>
       <c r="B781" s="0" t="s">
@@ -12546,7 +12542,7 @@
       </c>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="12" t="n">
+      <c r="A782" s="11" t="n">
         <v>21000054954</v>
       </c>
       <c r="B782" s="0" t="s">
@@ -12560,7 +12556,7 @@
       </c>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="12" t="n">
+      <c r="A783" s="11" t="n">
         <v>21000054930</v>
       </c>
       <c r="B783" s="0" t="s">
@@ -12574,7 +12570,7 @@
       </c>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="12" t="n">
+      <c r="A784" s="11" t="n">
         <v>21000055104</v>
       </c>
       <c r="B784" s="0" t="s">
@@ -12588,7 +12584,7 @@
       </c>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="12" t="n">
+      <c r="A785" s="11" t="n">
         <v>21000055340</v>
       </c>
       <c r="B785" s="0" t="s">
@@ -12602,7 +12598,7 @@
       </c>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="12" t="n">
+      <c r="A786" s="11" t="n">
         <v>21000055364</v>
       </c>
       <c r="B786" s="0" t="s">
@@ -12616,7 +12612,7 @@
       </c>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="12" t="n">
+      <c r="A787" s="11" t="n">
         <v>21000054671</v>
       </c>
       <c r="B787" s="0" t="s">
@@ -12630,7 +12626,7 @@
       </c>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="12" t="n">
+      <c r="A788" s="11" t="n">
         <v>21000054657</v>
       </c>
       <c r="B788" s="0" t="s">
@@ -12644,7 +12640,7 @@
       </c>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="12" t="n">
+      <c r="A789" s="11" t="n">
         <v>21000055098</v>
       </c>
       <c r="B789" s="0" t="s">
@@ -12658,7 +12654,7 @@
       </c>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="12" t="n">
+      <c r="A790" s="11" t="n">
         <v>21000055135</v>
       </c>
       <c r="B790" s="0" t="s">
@@ -12672,7 +12668,7 @@
       </c>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="12" t="n">
+      <c r="A791" s="11" t="n">
         <v>21000054664</v>
       </c>
       <c r="B791" s="0" t="s">
@@ -12686,7 +12682,7 @@
       </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="12" t="n">
+      <c r="A792" s="11" t="n">
         <v>21000054947</v>
       </c>
       <c r="B792" s="0" t="s">
@@ -12700,7 +12696,7 @@
       </c>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="12" t="n">
+      <c r="A793" s="11" t="n">
         <v>21000055159</v>
       </c>
       <c r="B793" s="0" t="s">
@@ -12714,7 +12710,7 @@
       </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="12" t="n">
+      <c r="A794" s="11" t="n">
         <v>21000054411</v>
       </c>
       <c r="B794" s="0" t="s">
@@ -12728,7 +12724,7 @@
       </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="12" t="n">
+      <c r="A795" s="11" t="n">
         <v>21000054466</v>
       </c>
       <c r="B795" s="0" t="s">
@@ -12742,7 +12738,7 @@
       </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="12" t="n">
+      <c r="A796" s="11" t="n">
         <v>21000055012</v>
       </c>
       <c r="B796" s="0" t="s">
@@ -12756,7 +12752,7 @@
       </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="12" t="n">
+      <c r="A797" s="11" t="n">
         <v>21000054473</v>
       </c>
       <c r="B797" s="0" t="s">
@@ -12770,7 +12766,7 @@
       </c>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="12" t="n">
+      <c r="A798" s="11" t="n">
         <v>21000068500</v>
       </c>
       <c r="B798" s="0" t="s">
@@ -12784,7 +12780,7 @@
       </c>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="12" t="n">
+      <c r="A799" s="11" t="n">
         <v>21000068494</v>
       </c>
       <c r="B799" s="0" t="s">
@@ -12798,7 +12794,7 @@
       </c>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="12" t="n">
+      <c r="A800" s="11" t="n">
         <v>21000066834</v>
       </c>
       <c r="B800" s="0" t="s">
@@ -12812,7 +12808,7 @@
       </c>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="12" t="n">
+      <c r="A801" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B801" s="0" t="s">
@@ -12826,7 +12822,7 @@
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="12" t="n">
+      <c r="A802" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B802" s="0" t="s">
@@ -12840,7 +12836,7 @@
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="12" t="n">
+      <c r="A803" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B803" s="0" t="s">
@@ -12854,7 +12850,7 @@
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="12" t="n">
+      <c r="A804" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B804" s="0" t="s">
@@ -12868,7 +12864,7 @@
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="12" t="n">
+      <c r="A805" s="11" t="n">
         <v>21000007516</v>
       </c>
       <c r="B805" s="0" t="s">
@@ -12882,7 +12878,7 @@
       </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="12" t="n">
+      <c r="A806" s="11" t="n">
         <v>21000007509</v>
       </c>
       <c r="B806" s="0" t="s">
@@ -12896,7 +12892,7 @@
       </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="12" t="n">
+      <c r="A807" s="11" t="n">
         <v>21000001965</v>
       </c>
       <c r="B807" s="0" t="s">
@@ -12910,7 +12906,7 @@
       </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="12" t="n">
+      <c r="A808" s="11" t="n">
         <v>21000002016</v>
       </c>
       <c r="B808" s="0" t="s">
@@ -12924,7 +12920,7 @@
       </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="12" t="n">
+      <c r="A809" s="11" t="n">
         <v>21000009039</v>
       </c>
       <c r="B809" s="0" t="s">
@@ -12938,7 +12934,7 @@
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="12" t="n">
+      <c r="A810" s="11" t="n">
         <v>21000009053</v>
       </c>
       <c r="B810" s="0" t="s">
@@ -12952,7 +12948,7 @@
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="12" t="n">
+      <c r="A811" s="11" t="n">
         <v>21000009008</v>
       </c>
       <c r="B811" s="0" t="s">
@@ -12966,7 +12962,7 @@
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="12" t="n">
+      <c r="A812" s="11" t="n">
         <v>71040065045</v>
       </c>
       <c r="B812" s="0" t="s">
@@ -12980,7 +12976,7 @@
       </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="12" t="n">
+      <c r="A813" s="11" t="n">
         <v>71040065311</v>
       </c>
       <c r="B813" s="0" t="s">
@@ -12994,7 +12990,7 @@
       </c>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="12" t="n">
+      <c r="A814" s="11" t="n">
         <v>21000011162</v>
       </c>
       <c r="B814" s="0" t="s">
@@ -13008,7 +13004,7 @@
       </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="12" t="n">
+      <c r="A815" s="11" t="n">
         <v>21000611447</v>
       </c>
       <c r="B815" s="0" t="s">
@@ -13022,7 +13018,7 @@
       </c>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="12" t="n">
+      <c r="A816" s="11" t="n">
         <v>21000039814</v>
       </c>
       <c r="B816" s="0" t="s">
@@ -13036,7 +13032,7 @@
       </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="12" t="n">
+      <c r="A817" s="11" t="n">
         <v>21000044894</v>
       </c>
       <c r="B817" s="0" t="s">
@@ -13050,7 +13046,7 @@
       </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="12" t="n">
+      <c r="A818" s="11" t="n">
         <v>21000611461</v>
       </c>
       <c r="B818" s="0" t="s">
@@ -13064,7 +13060,7 @@
       </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="12" t="n">
+      <c r="A819" s="11" t="n">
         <v>21000050024</v>
       </c>
       <c r="B819" s="0" t="s">
@@ -13078,7 +13074,7 @@
       </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="12" t="n">
+      <c r="A820" s="11" t="n">
         <v>21000044900</v>
       </c>
       <c r="B820" s="0" t="s">
@@ -13092,7 +13088,7 @@
       </c>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="12" t="n">
+      <c r="A821" s="11" t="n">
         <v>21000604647</v>
       </c>
       <c r="B821" s="0" t="s">
@@ -13106,7 +13102,7 @@
       </c>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="12" t="n">
+      <c r="A822" s="11" t="n">
         <v>21000615261</v>
       </c>
       <c r="B822" s="0" t="s">
@@ -13120,7 +13116,7 @@
       </c>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="12" t="n">
+      <c r="A823" s="11" t="n">
         <v>21000604739</v>
       </c>
       <c r="B823" s="0" t="s">
@@ -13134,7 +13130,7 @@
       </c>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="12" t="n">
+      <c r="A824" s="11" t="n">
         <v>21000604692</v>
       </c>
       <c r="B824" s="0" t="s">
@@ -13148,7 +13144,7 @@
       </c>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="12" t="n">
+      <c r="A825" s="11" t="n">
         <v>21000024834</v>
       </c>
       <c r="B825" s="0" t="s">
@@ -13162,7 +13158,7 @@
       </c>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="12" t="n">
+      <c r="A826" s="11" t="n">
         <v>21000065646</v>
       </c>
       <c r="B826" s="0" t="s">
@@ -13176,7 +13172,7 @@
       </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="12" t="n">
+      <c r="A827" s="11" t="n">
         <v>21000616480</v>
       </c>
       <c r="B827" s="0" t="s">
@@ -13190,7 +13186,7 @@
       </c>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="12" t="n">
+      <c r="A828" s="11" t="n">
         <v>21000604913</v>
       </c>
       <c r="B828" s="0" t="s">
@@ -13204,7 +13200,7 @@
       </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="12" t="n">
+      <c r="A829" s="11" t="n">
         <v>21000018505</v>
       </c>
       <c r="B829" s="0" t="s">
@@ -13218,7 +13214,7 @@
       </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="12" t="n">
+      <c r="A830" s="11" t="n">
         <v>21000018574</v>
       </c>
       <c r="B830" s="0" t="s">
@@ -13232,7 +13228,7 @@
       </c>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="12" t="n">
+      <c r="A831" s="11" t="n">
         <v>21000031306</v>
       </c>
       <c r="B831" s="0" t="s">
@@ -13246,7 +13242,7 @@
       </c>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="12" t="n">
+      <c r="A832" s="11" t="n">
         <v>21000031290</v>
       </c>
       <c r="B832" s="0" t="s">
@@ -13260,7 +13256,7 @@
       </c>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="12" t="n">
+      <c r="A833" s="11" t="n">
         <v>21000049080</v>
       </c>
       <c r="B833" s="0" t="s">
@@ -13274,7 +13270,7 @@
       </c>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="12" t="n">
+      <c r="A834" s="11" t="n">
         <v>21000018659</v>
       </c>
       <c r="B834" s="0" t="s">
@@ -13288,7 +13284,7 @@
       </c>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="12" t="n">
+      <c r="A835" s="11" t="n">
         <v>21000018567</v>
       </c>
       <c r="B835" s="0" t="s">
@@ -13302,7 +13298,7 @@
       </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="12" t="n">
+      <c r="A836" s="11" t="n">
         <v>21000031313</v>
       </c>
       <c r="B836" s="0" t="s">
@@ -13316,7 +13312,7 @@
       </c>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="12" t="n">
+      <c r="A837" s="11" t="n">
         <v>21000048625</v>
       </c>
       <c r="B837" s="0" t="s">
@@ -13330,7 +13326,7 @@
       </c>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="12" t="n">
+      <c r="A838" s="11" t="n">
         <v>21000054954</v>
       </c>
       <c r="B838" s="0" t="s">
@@ -13344,7 +13340,7 @@
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="12" t="n">
+      <c r="A839" s="11" t="n">
         <v>21000054930</v>
       </c>
       <c r="B839" s="0" t="s">
@@ -13358,7 +13354,7 @@
       </c>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="12" t="n">
+      <c r="A840" s="11" t="n">
         <v>21000055104</v>
       </c>
       <c r="B840" s="0" t="s">
@@ -13372,7 +13368,7 @@
       </c>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="12" t="n">
+      <c r="A841" s="11" t="n">
         <v>21000055340</v>
       </c>
       <c r="B841" s="0" t="s">
@@ -13386,7 +13382,7 @@
       </c>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="12" t="n">
+      <c r="A842" s="11" t="n">
         <v>21000055364</v>
       </c>
       <c r="B842" s="0" t="s">
@@ -13400,7 +13396,7 @@
       </c>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="12" t="n">
+      <c r="A843" s="11" t="n">
         <v>21000054671</v>
       </c>
       <c r="B843" s="0" t="s">
@@ -13414,7 +13410,7 @@
       </c>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="12" t="n">
+      <c r="A844" s="11" t="n">
         <v>21000054657</v>
       </c>
       <c r="B844" s="0" t="s">
@@ -13428,7 +13424,7 @@
       </c>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="12" t="n">
+      <c r="A845" s="11" t="n">
         <v>21000055098</v>
       </c>
       <c r="B845" s="0" t="s">
@@ -13442,7 +13438,7 @@
       </c>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="12" t="n">
+      <c r="A846" s="11" t="n">
         <v>21000055135</v>
       </c>
       <c r="B846" s="0" t="s">
@@ -13456,7 +13452,7 @@
       </c>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="12" t="n">
+      <c r="A847" s="11" t="n">
         <v>21000054664</v>
       </c>
       <c r="B847" s="0" t="s">
@@ -13470,7 +13466,7 @@
       </c>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="12" t="n">
+      <c r="A848" s="11" t="n">
         <v>21000054947</v>
       </c>
       <c r="B848" s="0" t="s">
@@ -13484,7 +13480,7 @@
       </c>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="12" t="n">
+      <c r="A849" s="11" t="n">
         <v>21000055159</v>
       </c>
       <c r="B849" s="0" t="s">
@@ -13498,7 +13494,7 @@
       </c>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="12" t="n">
+      <c r="A850" s="11" t="n">
         <v>21000054411</v>
       </c>
       <c r="B850" s="0" t="s">
@@ -13512,7 +13508,7 @@
       </c>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="12" t="n">
+      <c r="A851" s="11" t="n">
         <v>21000054466</v>
       </c>
       <c r="B851" s="0" t="s">
@@ -13526,7 +13522,7 @@
       </c>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="12" t="n">
+      <c r="A852" s="11" t="n">
         <v>21000055012</v>
       </c>
       <c r="B852" s="0" t="s">
@@ -13540,7 +13536,7 @@
       </c>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="12" t="n">
+      <c r="A853" s="11" t="n">
         <v>21000054473</v>
       </c>
       <c r="B853" s="0" t="s">
@@ -13554,7 +13550,7 @@
       </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="12" t="n">
+      <c r="A854" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B854" s="0" t="s">
@@ -13568,7 +13564,7 @@
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="12" t="n">
+      <c r="A855" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B855" s="0" t="s">
@@ -13582,7 +13578,7 @@
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="12" t="n">
+      <c r="A856" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B856" s="0" t="s">
@@ -13596,7 +13592,7 @@
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="12" t="n">
+      <c r="A857" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B857" s="0" t="s">
@@ -13610,7 +13606,7 @@
       </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="12" t="n">
+      <c r="A858" s="11" t="n">
         <v>21000007516</v>
       </c>
       <c r="B858" s="0" t="s">
@@ -13624,7 +13620,7 @@
       </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="12" t="n">
+      <c r="A859" s="11" t="n">
         <v>21000007509</v>
       </c>
       <c r="B859" s="0" t="s">
@@ -13638,7 +13634,7 @@
       </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="12" t="n">
+      <c r="A860" s="11" t="n">
         <v>21000001965</v>
       </c>
       <c r="B860" s="0" t="s">
@@ -13652,7 +13648,7 @@
       </c>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="12" t="n">
+      <c r="A861" s="11" t="n">
         <v>21000000883</v>
       </c>
       <c r="B861" s="0" t="s">
@@ -13666,7 +13662,7 @@
       </c>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="12" t="n">
+      <c r="A862" s="11" t="n">
         <v>21000001989</v>
       </c>
       <c r="B862" s="0" t="s">
@@ -13680,7 +13676,7 @@
       </c>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="12" t="n">
+      <c r="A863" s="11" t="n">
         <v>21000002016</v>
       </c>
       <c r="B863" s="0" t="s">
@@ -13694,7 +13690,7 @@
       </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="12" t="n">
+      <c r="A864" s="11" t="n">
         <v>21000001941</v>
       </c>
       <c r="B864" s="0" t="s">
@@ -13708,7 +13704,7 @@
       </c>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="12" t="n">
+      <c r="A865" s="11" t="n">
         <v>21000009039</v>
       </c>
       <c r="B865" s="0" t="s">
@@ -13722,7 +13718,7 @@
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="12" t="n">
+      <c r="A866" s="11" t="n">
         <v>21000009053</v>
       </c>
       <c r="B866" s="0" t="s">
@@ -13736,7 +13732,7 @@
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="12" t="n">
+      <c r="A867" s="11" t="n">
         <v>21000009008</v>
       </c>
       <c r="B867" s="0" t="s">
@@ -13750,7 +13746,7 @@
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="12" t="n">
+      <c r="A868" s="11" t="n">
         <v>71040065045</v>
       </c>
       <c r="B868" s="0" t="s">
@@ -13764,7 +13760,7 @@
       </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="12" t="n">
+      <c r="A869" s="11" t="n">
         <v>71040065311</v>
       </c>
       <c r="B869" s="0" t="s">
@@ -13778,7 +13774,7 @@
       </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="12" t="n">
+      <c r="A870" s="11" t="n">
         <v>21000011162</v>
       </c>
       <c r="B870" s="0" t="s">
@@ -13792,7 +13788,7 @@
       </c>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="12" t="n">
+      <c r="A871" s="11" t="n">
         <v>71040000152</v>
       </c>
       <c r="B871" s="0" t="s">
@@ -13806,7 +13802,7 @@
       </c>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="12" t="n">
+      <c r="A872" s="11" t="n">
         <v>71040000602</v>
       </c>
       <c r="B872" s="0" t="s">
@@ -13820,7 +13816,7 @@
       </c>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="12" t="n">
+      <c r="A873" s="11" t="n">
         <v>21000611447</v>
       </c>
       <c r="B873" s="0" t="s">
@@ -13834,7 +13830,7 @@
       </c>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="12" t="n">
+      <c r="A874" s="11" t="n">
         <v>21000039814</v>
       </c>
       <c r="B874" s="0" t="s">
@@ -13848,7 +13844,7 @@
       </c>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="12" t="n">
+      <c r="A875" s="11" t="n">
         <v>21000044894</v>
       </c>
       <c r="B875" s="0" t="s">
@@ -13862,7 +13858,7 @@
       </c>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="12" t="n">
+      <c r="A876" s="11" t="n">
         <v>21000611461</v>
       </c>
       <c r="B876" s="0" t="s">
@@ -13876,7 +13872,7 @@
       </c>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="12" t="n">
+      <c r="A877" s="11" t="n">
         <v>21000050024</v>
       </c>
       <c r="B877" s="0" t="s">
@@ -13890,7 +13886,7 @@
       </c>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="12" t="n">
+      <c r="A878" s="11" t="n">
         <v>21000044900</v>
       </c>
       <c r="B878" s="0" t="s">
@@ -13904,7 +13900,7 @@
       </c>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="12" t="n">
+      <c r="A879" s="11" t="n">
         <v>21000604647</v>
       </c>
       <c r="B879" s="0" t="s">
@@ -13918,7 +13914,7 @@
       </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="12" t="n">
+      <c r="A880" s="11" t="n">
         <v>21000615261</v>
       </c>
       <c r="B880" s="0" t="s">
@@ -13932,7 +13928,7 @@
       </c>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="12" t="n">
+      <c r="A881" s="11" t="n">
         <v>21000604739</v>
       </c>
       <c r="B881" s="0" t="s">
@@ -13946,7 +13942,7 @@
       </c>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="12" t="n">
+      <c r="A882" s="11" t="n">
         <v>21000604692</v>
       </c>
       <c r="B882" s="0" t="s">
@@ -13960,7 +13956,7 @@
       </c>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="12" t="n">
+      <c r="A883" s="11" t="n">
         <v>21000024834</v>
       </c>
       <c r="B883" s="0" t="s">
@@ -13974,7 +13970,7 @@
       </c>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="12" t="n">
+      <c r="A884" s="11" t="n">
         <v>21000065646</v>
       </c>
       <c r="B884" s="0" t="s">
@@ -13988,7 +13984,7 @@
       </c>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="12" t="n">
+      <c r="A885" s="11" t="n">
         <v>21000616480</v>
       </c>
       <c r="B885" s="0" t="s">
@@ -14002,7 +13998,7 @@
       </c>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="12" t="n">
+      <c r="A886" s="11" t="n">
         <v>21000602605</v>
       </c>
       <c r="B886" s="0" t="s">
@@ -14016,7 +14012,7 @@
       </c>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="12" t="n">
+      <c r="A887" s="11" t="n">
         <v>21000018505</v>
       </c>
       <c r="B887" s="0" t="s">
@@ -14030,7 +14026,7 @@
       </c>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="12" t="n">
+      <c r="A888" s="11" t="n">
         <v>21000018574</v>
       </c>
       <c r="B888" s="0" t="s">
@@ -14044,7 +14040,7 @@
       </c>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="12" t="n">
+      <c r="A889" s="11" t="n">
         <v>21000031306</v>
       </c>
       <c r="B889" s="0" t="s">
@@ -14058,7 +14054,7 @@
       </c>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="12" t="n">
+      <c r="A890" s="11" t="n">
         <v>21000031290</v>
       </c>
       <c r="B890" s="0" t="s">
@@ -14072,7 +14068,7 @@
       </c>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="12" t="n">
+      <c r="A891" s="11" t="n">
         <v>21000049080</v>
       </c>
       <c r="B891" s="0" t="s">
@@ -14086,7 +14082,7 @@
       </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="12" t="n">
+      <c r="A892" s="11" t="n">
         <v>21000018659</v>
       </c>
       <c r="B892" s="0" t="s">
@@ -14100,7 +14096,7 @@
       </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="12" t="n">
+      <c r="A893" s="11" t="n">
         <v>21000018567</v>
       </c>
       <c r="B893" s="0" t="s">
@@ -14114,7 +14110,7 @@
       </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="12" t="n">
+      <c r="A894" s="11" t="n">
         <v>21000018635</v>
       </c>
       <c r="B894" s="0" t="s">
@@ -14128,7 +14124,7 @@
       </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="12" t="n">
+      <c r="A895" s="11" t="n">
         <v>21000031313</v>
       </c>
       <c r="B895" s="0" t="s">
@@ -14142,7 +14138,7 @@
       </c>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="12" t="n">
+      <c r="A896" s="11" t="n">
         <v>21000048625</v>
       </c>
       <c r="B896" s="0" t="s">
@@ -14156,7 +14152,7 @@
       </c>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="12" t="n">
+      <c r="A897" s="11" t="n">
         <v>21000054954</v>
       </c>
       <c r="B897" s="0" t="s">
@@ -14170,7 +14166,7 @@
       </c>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="12" t="n">
+      <c r="A898" s="11" t="n">
         <v>21000054930</v>
       </c>
       <c r="B898" s="0" t="s">
@@ -14184,7 +14180,7 @@
       </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="12" t="n">
+      <c r="A899" s="11" t="n">
         <v>21000055104</v>
       </c>
       <c r="B899" s="0" t="s">
@@ -14198,7 +14194,7 @@
       </c>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="12" t="n">
+      <c r="A900" s="11" t="n">
         <v>21000055340</v>
       </c>
       <c r="B900" s="0" t="s">
@@ -14212,7 +14208,7 @@
       </c>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="12" t="n">
+      <c r="A901" s="11" t="n">
         <v>21000055364</v>
       </c>
       <c r="B901" s="0" t="s">
@@ -14226,7 +14222,7 @@
       </c>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="12" t="n">
+      <c r="A902" s="11" t="n">
         <v>21000054671</v>
       </c>
       <c r="B902" s="0" t="s">
@@ -14240,7 +14236,7 @@
       </c>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="12" t="n">
+      <c r="A903" s="11" t="n">
         <v>21000054657</v>
       </c>
       <c r="B903" s="0" t="s">
@@ -14254,7 +14250,7 @@
       </c>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="12" t="n">
+      <c r="A904" s="11" t="n">
         <v>21000055098</v>
       </c>
       <c r="B904" s="0" t="s">
@@ -14268,7 +14264,7 @@
       </c>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="12" t="n">
+      <c r="A905" s="11" t="n">
         <v>21000055135</v>
       </c>
       <c r="B905" s="0" t="s">
@@ -14282,7 +14278,7 @@
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="12" t="n">
+      <c r="A906" s="11" t="n">
         <v>21000054664</v>
       </c>
       <c r="B906" s="0" t="s">
@@ -14296,7 +14292,7 @@
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="12" t="n">
+      <c r="A907" s="11" t="n">
         <v>21000054947</v>
       </c>
       <c r="B907" s="0" t="s">
@@ -14310,7 +14306,7 @@
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="12" t="n">
+      <c r="A908" s="11" t="n">
         <v>21000055159</v>
       </c>
       <c r="B908" s="0" t="s">
@@ -14324,7 +14320,7 @@
       </c>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="12" t="n">
+      <c r="A909" s="11" t="n">
         <v>21000054411</v>
       </c>
       <c r="B909" s="0" t="s">
@@ -14338,7 +14334,7 @@
       </c>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="12" t="n">
+      <c r="A910" s="11" t="n">
         <v>21000054466</v>
       </c>
       <c r="B910" s="0" t="s">
@@ -14352,7 +14348,7 @@
       </c>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="12" t="n">
+      <c r="A911" s="11" t="n">
         <v>21000055012</v>
       </c>
       <c r="B911" s="0" t="s">
@@ -14366,7 +14362,7 @@
       </c>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="12" t="n">
+      <c r="A912" s="11" t="n">
         <v>21000054473</v>
       </c>
       <c r="B912" s="0" t="s">
@@ -14380,7 +14376,7 @@
       </c>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="12" t="n">
+      <c r="A913" s="11" t="n">
         <v>21000068500</v>
       </c>
       <c r="B913" s="0" t="s">
@@ -14394,7 +14390,7 @@
       </c>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="12" t="n">
+      <c r="A914" s="11" t="n">
         <v>21000068494</v>
       </c>
       <c r="B914" s="0" t="s">
@@ -14408,7 +14404,7 @@
       </c>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="12" t="n">
+      <c r="A915" s="11" t="n">
         <v>21000066834</v>
       </c>
       <c r="B915" s="0" t="s">
@@ -14422,7 +14418,7 @@
       </c>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="12" t="n">
+      <c r="A916" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B916" s="0" t="s">
@@ -14436,7 +14432,7 @@
       </c>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="12" t="n">
+      <c r="A917" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B917" s="0" t="s">
@@ -14450,7 +14446,7 @@
       </c>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="12" t="n">
+      <c r="A918" s="11" t="n">
         <v>21000054602</v>
       </c>
       <c r="B918" s="0" t="s">
@@ -14464,7 +14460,7 @@
       </c>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="12" t="n">
+      <c r="A919" s="11" t="n">
         <v>21000054619</v>
       </c>
       <c r="B919" s="0" t="s">
@@ -14478,7 +14474,7 @@
       </c>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="12" t="n">
+      <c r="A920" s="11" t="n">
         <v>21000007516</v>
       </c>
       <c r="B920" s="0" t="s">
@@ -14492,7 +14488,7 @@
       </c>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="12" t="n">
+      <c r="A921" s="11" t="n">
         <v>21000007509</v>
       </c>
       <c r="B921" s="0" t="s">
@@ -14506,7 +14502,7 @@
       </c>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="12" t="n">
+      <c r="A922" s="11" t="n">
         <v>21000001965</v>
       </c>
       <c r="B922" s="0" t="s">
@@ -14520,7 +14516,7 @@
       </c>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="12" t="n">
+      <c r="A923" s="11" t="n">
         <v>21000000883</v>
       </c>
       <c r="B923" s="0" t="s">
@@ -14534,7 +14530,7 @@
       </c>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="12" t="n">
+      <c r="A924" s="11" t="n">
         <v>21000001989</v>
       </c>
       <c r="B924" s="0" t="s">
@@ -14548,7 +14544,7 @@
       </c>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="12" t="n">
+      <c r="A925" s="11" t="n">
         <v>21000002016</v>
       </c>
       <c r="B925" s="0" t="s">
@@ -14562,7 +14558,7 @@
       </c>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="12" t="n">
+      <c r="A926" s="11" t="n">
         <v>21000001941</v>
       </c>
       <c r="B926" s="0" t="s">
@@ -14576,7 +14572,7 @@
       </c>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="12" t="n">
+      <c r="A927" s="11" t="n">
         <v>21000009039</v>
       </c>
       <c r="B927" s="0" t="s">
@@ -14590,7 +14586,7 @@
       </c>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="12" t="n">
+      <c r="A928" s="11" t="n">
         <v>21000009053</v>
       </c>
       <c r="B928" s="0" t="s">
@@ -14604,7 +14600,7 @@
       </c>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="12" t="n">
+      <c r="A929" s="11" t="n">
         <v>21000009008</v>
       </c>
       <c r="B929" s="0" t="s">
@@ -14618,7 +14614,7 @@
       </c>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="12" t="n">
+      <c r="A930" s="11" t="n">
         <v>71040065045</v>
       </c>
       <c r="B930" s="0" t="s">
@@ -14632,7 +14628,7 @@
       </c>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="12" t="n">
+      <c r="A931" s="11" t="n">
         <v>71040065311</v>
       </c>
       <c r="B931" s="0" t="s">
@@ -14646,7 +14642,7 @@
       </c>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="12" t="n">
+      <c r="A932" s="11" t="n">
         <v>21000011162</v>
       </c>
       <c r="B932" s="0" t="s">
@@ -14660,7 +14656,7 @@
       </c>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="12" t="n">
+      <c r="A933" s="11" t="n">
         <v>71040000152</v>
       </c>
       <c r="B933" s="0" t="s">
@@ -14674,7 +14670,7 @@
       </c>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="12" t="n">
+      <c r="A934" s="11" t="n">
         <v>71040000602</v>
       </c>
       <c r="B934" s="0" t="s">
